--- a/output/fit_clients/fit_round_26.xlsx
+++ b/output/fit_clients/fit_round_26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>6350616236.723038</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.003698400488995999</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>8</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.430391783727825</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.8956608246686735</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-3.430391783727825</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>4437036037.209299</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.006026794197701624</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
         <v>5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3.856837350830924</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.9238617066042297</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-3.856837350830924</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>5874379403.300703</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.003807601637536095</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5.989408732746596</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.9958114594520275</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-5.989408732746596</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>4860816236.069712</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.00437385873955926</v>
       </c>
       <c r="G5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>8</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.228529556639336</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.7980350803620609</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-3.228529556639336</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>7341297780.156322</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.002763343750110325</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>10</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.8721057090374165</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.884627006836992</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.168566075717739</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.884627006836992</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>8231913235.942457</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.001259585580196242</v>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="L7" t="n">
-        <v>6.001223536701848</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.9906090008505484</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-6.001223536701848</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>7588702714.666272</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.002699025239952735</v>
       </c>
       <c r="G8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="L8" t="n">
-        <v>4.22771470279879</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.945541561980852</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-4.22771470279879</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>5255252366.012997</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.003596264656680529</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="L9" t="n">
-        <v>5.900286504328606</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.9424954963698355</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-5.900286504328606</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>3364801230.136608</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.004061008557734147</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>5</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3.85340022685261</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.9525012640521419</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-3.85340022685261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>4688735768.936225</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.001309613011878188</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>9</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.6557074506562831</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462226</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.88564890020873</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.8569059517943324</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.88564890020873</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>6931116727.376965</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001717338249353578</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>5</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.09067516328241598</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3.97476298939027</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.09205023588524025</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-3.97476298939027</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>6422978726.065926</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.004213540157241418</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>8</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3.076128272125458</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.9899281592396905</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-3.076128272125458</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>7066820766.484729</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.002714750827938063</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>7</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.300559748004507</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.8404310433221669</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-3.300559748004507</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>5503082960.453281</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.00374322326648873</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>5</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>4.143098005580533</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.9760786069494056</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-4.143098005580533</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>5497202277.308353</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.00542607860629247</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>5</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.951499456890389</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.9035026730310211</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-3.951499456890389</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>6603192448.426169</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.002967162990336348</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>5.951469531764387</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.9864272788189901</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-5.951469531764387</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>5568123057.967788</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.001085834704024564</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>8.407133248242575</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.9943665925593508</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-8.407133248242575</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>3282385593.239829</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.002265554720277178</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>6</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>3.566298338836949</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.8982157303789869</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-3.566298338836949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>3828128738.219138</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001333672897828129</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>4</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="L20" t="n">
-        <v>4.256316540360042</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8278264233485841</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-4.256316540360042</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>5556667941.62044</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.005640488224722484</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>9</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.8505934674148476</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>3.106349951752516</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.108370772551066</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-3.106349951752516</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>5059074139.535337</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.00406307844998944</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
         <v>2</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>6.13603663930996</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.8906303805433275</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-6.13603663930996</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>8553136761.754671</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001629970041329863</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>8</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.8894345682044349</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>3.043075821631028</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.194807735681163</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-3.043075821631028</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>6</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>6677866906.458737</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.004239806173745644</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>3</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>5.065901356031024</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.021822148008726</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-5.065901356031024</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>5964412992.170534</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.003891127144916215</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
         <v>5</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.942835268104344</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.9193764390943436</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-3.942835268104344</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>5615783479.455687</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.001234223651735533</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>8</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.7573312905198335</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.939414676834109</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.010831994624333</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-2.939414676834109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>6</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>5500723875.791533</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.003565236526289614</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>5</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>3.906549263984735</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.9393915102433463</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-3.906549263984735</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>8581138585.575103</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.004626878462772998</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>7</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>3.336497094560927</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.8598802261077546</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-3.336497094560927</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>6806639614.708278</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001345386607975798</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>3</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>5.064167209011798</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.010635991690126</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-5.064167209011798</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>6</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>7955781509.195627</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.003977339938718443</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>6</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>3.430335964654251</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.8760829136005371</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-3.430335964654251</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>6768381181.782484</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.0034044257093933</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>7</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>3.38298662910967</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.936948890849008</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-3.38298662910967</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>4919360165.45799</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.00101718289911204</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>5</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="L32" t="n">
-        <v>4.169583218246672</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.9349807449083595</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-4.169583218246672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>7026195217.848552</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.002754302956120112</v>
       </c>
       <c r="G33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>4</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>4.413208939071576</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.8524281013865809</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-4.413208939071576</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>5660515570.822335</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.004151828639532561</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>3</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.5803900809352641</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="L34" t="n">
-        <v>5.106040360545959</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.858342272677495</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-5.106040360545959</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>6895719179.109275</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.001794027140236675</v>
       </c>
       <c r="G35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>4</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="L35" t="n">
-        <v>4.313048407319422</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.370005619471654</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-4.313048407319422</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>5565656119.201745</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.002872639236376374</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>6</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3.556795774911406</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.9932813297106424</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-3.556795774911406</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>6300940707.423944</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.004970397618046024</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>7</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.2823938231994021</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>3.483043304782586</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.6377857224593619</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-3.483043304782586</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>6</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>4652074660.980234</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.005067951689261666</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>5</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>3.800676324678664</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.9103396093909277</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-3.800676324678664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>6231950905.312475</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002479252839239689</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>2</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="L39" t="n">
-        <v>6.226736935123631</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.9169297234314566</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-6.226736935123631</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>6935389509.877103</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.003413084282003352</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>5</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="L40" t="n">
-        <v>4.072806911980645</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.9855613290516385</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-4.072806911980645</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>5730509447.387734</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001331306594505013</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>5</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>3.903484374049463</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9126072060366217</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-3.903484374049463</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>6866381078.114354</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.004198959286933845</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>4</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>4.216910875276162</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1.000762337228818</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-4.216910875276162</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>6995670179.80058</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.005149904711474717</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>4</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>4.438774095398792</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.9411596194404565</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-4.438774095398792</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>6912127388.477881</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.001602917049939034</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>5</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="L44" t="n">
-        <v>4.002653444077649</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.9557506056220113</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-4.002653444077649</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>4344746979.763854</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001349332746874926</v>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
         <v>3</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318265</v>
-      </c>
-      <c r="L45" t="n">
-        <v>5.241751662581018</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.9941405549659199</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-5.241751662581018</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>11052112660.33428</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.003719102984416725</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>7</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>3.334816540504412</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.7844633584386577</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-3.334816540504412</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>6</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>9068429953.537781</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.002282971957140432</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>5</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>3.79965410406202</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.8989158269862177</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-3.79965410406202</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>6755236290.243025</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.002656759687865866</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>2</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>6.080264686931648</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.9843297558817854</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-6.080264686931648</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>4395212000.721168</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.003873774002660954</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>7</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="L49" t="n">
-        <v>3.441811673503575</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.8489948862468981</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-3.441811673503575</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>5900033547.527686</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.003973785949423859</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>3</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>5.031827064450621</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.019797427961664</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-5.031827064450621</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>6</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>3753094763.646081</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.005505030996661468</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>7</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.2541584965241926</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>3.377463669042889</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.5342632571402635</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-3.377463669042889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>8486890128.132445</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.001449783507047624</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>5</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="L52" t="n">
-        <v>3.815124889630171</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.8516897923114214</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-3.815124889630171</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>6232872312.183043</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.00241494156393849</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
         <v>5</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.8882276611602306</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="L53" t="n">
-        <v>3.897547408208419</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1.262438926888713</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-3.897547408208419</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>4764135801.888181</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.003742213974935749</v>
       </c>
       <c r="G54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>8</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>3.027794033205299</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.7967390635876404</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-3.027794033205299</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>8428345504.73351</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.003889035399298202</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>5</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="L55" t="n">
-        <v>3.873583887814551</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.9182516990018719</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-3.873583887814551</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>6131358322.152832</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002946731421906012</v>
       </c>
       <c r="G56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>2</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>6.067949041325424</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.9705853727357894</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-6.067949041325424</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>8656638204.02976</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.002973629930595147</v>
       </c>
       <c r="G57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>3</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>4.916432111200798</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.874697208464203</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-4.916432111200798</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>6718767998.839952</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.002062694564536463</v>
       </c>
       <c r="G58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>8</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.7255288172775549</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.959664761586533</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.9828290697708083</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.959664761586533</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>6</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>6440359139.221026</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.003073606084428394</v>
       </c>
       <c r="G59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>7</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3.272020101631673</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.8502112507579246</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-3.272020101631673</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>5630506044.839447</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.003746001733582279</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>5</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677434</v>
-      </c>
-      <c r="L60" t="n">
-        <v>3.760571634004372</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.8406984096272173</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-3.760571634004372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>6</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>7169670714.854903</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.004700538822446165</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>7</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.02998611139182509</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734927</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3.98155502525075</v>
-      </c>
-      <c r="M61" t="n">
-        <v>-0.4511659268857125</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-3.98155502525075</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>5590227323.375591</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.00323988022164686</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>5</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>4.463771759698286</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.8768006827146436</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-4.463771759698286</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>6493257546.655239</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.004421728816472115</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
         <v>6</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.1963632365249318</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="L63" t="n">
-        <v>3.522401805928655</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.4136803212867981</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-3.522401805928655</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>6</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>4709566258.140619</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.005277798765478325</v>
       </c>
       <c r="G64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>3</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="L64" t="n">
-        <v>4.918398856242279</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.9263388356232122</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-4.918398856242279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>5414492273.175839</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.004281504570509029</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>3</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>5.409530887362709</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1.048773360309264</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-5.409530887362709</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>4550372592.790574</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.002581557066915523</v>
       </c>
       <c r="G66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
         <v>5</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702345</v>
-      </c>
-      <c r="L66" t="n">
-        <v>3.918794839057833</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.9069275838236003</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-3.918794839057833</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>6091267581.813245</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.004953788875916258</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>8.54302598978202</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.9508017168039187</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-8.54302598978202</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>8566219368.732382</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.002754301697108487</v>
       </c>
       <c r="G68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
         <v>5</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="L68" t="n">
-        <v>3.749253748974365</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.7511064418933757</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-3.749253748974365</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>4569820852.269358</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.001224606380480195</v>
       </c>
       <c r="G69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
         <v>4</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>4.392001664532698</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.9767228945050644</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-4.392001664532698</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>6357818760.03066</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.00264118878277328</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>3</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>5.775633546049192</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.9173705936250627</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-5.775633546049192</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>3454587602.417741</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.003194856234907021</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>2</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>5.985345183492647</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.8563198628605965</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-5.985345183492647</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>5652878514.409589</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.00194105398746586</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>2</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>6.029148192731594</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.106885255805095</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-6.029148192731594</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>6914802547.307686</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.001407079789785349</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>3</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>4.940320389737687</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.9826393278137535</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-4.940320389737687</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>5044170081.76113</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.004573845953973226</v>
       </c>
       <c r="G74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>5</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701587</v>
-      </c>
-      <c r="L74" t="n">
-        <v>3.818650977057757</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.8744402375948416</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-3.818650977057757</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>7559218695.06938</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.003074087049115611</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>8</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.8926120137050542</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>3.190882807261047</v>
-      </c>
-      <c r="M75" t="n">
-        <v>1.161160772343558</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-3.190882807261047</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>5284001018.689651</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.003019723289994821</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>7</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>3.398919696219147</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.897515087669393</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-3.398919696219147</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>7759427253.992794</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.004791807775367825</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>2</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="L77" t="n">
-        <v>6.071850265092471</v>
-      </c>
-      <c r="M77" t="n">
-        <v>1.020414111909123</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-6.071850265092471</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>5457063562.665739</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.005014797553787852</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
         <v>5</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.8476475208124392</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>3.919158822134486</v>
-      </c>
-      <c r="M78" t="n">
-        <v>1.235184373103973</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-3.919158822134486</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>6</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>6551015276.795127</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.002607537602302198</v>
       </c>
       <c r="G79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>4</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>4.242282242529924</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.9564085872956705</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-4.242282242529924</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>6178912672.464113</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.003084300522657249</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>7</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="L80" t="n">
-        <v>3.606916524210273</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.9446381330207796</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-3.606916524210273</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>7092826814.142289</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.004856010587792839</v>
       </c>
       <c r="G81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="L81" t="n">
-        <v>8.381122167916505</v>
-      </c>
-      <c r="M81" t="n">
-        <v>1.023052703223682</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-8.381122167916505</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>6</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>8645103562.755953</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.004934597046031036</v>
       </c>
       <c r="G82" t="b">
         <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>2</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>6.111349715228286</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.9695200419417331</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-6.111349715228286</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>10080563096.83922</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.003110929128206842</v>
       </c>
       <c r="G83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
         <v>8</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>3.037888651131486</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.800620820096769</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-3.037888651131486</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>5417729806.580007</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.004593299268084981</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
         <v>7</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.09527373856002613</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="L84" t="n">
-        <v>3.282947775480016</v>
-      </c>
-      <c r="M84" t="n">
-        <v>-0.246064924160861</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-3.282947775480016</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>6</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>4979172324.122812</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.003429615790344362</v>
       </c>
       <c r="G85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>5</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>3.823096900845976</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.9338747985182059</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-3.823096900845976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>7667177243.234579</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.001939908780651989</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>7</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307498</v>
-      </c>
-      <c r="L86" t="n">
-        <v>3.573321162108007</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.9576760678124087</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-3.573321162108007</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>3895977187.650068</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001579118359369803</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>7</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764211</v>
-      </c>
-      <c r="L87" t="n">
-        <v>3.294774508953678</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.9694734887155599</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-3.294774508953678</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>8872903597.49789</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.005672423263932323</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>5</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="L88" t="n">
-        <v>3.815890881333976</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.8468223462802501</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-3.815890881333976</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>5243184190.902617</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.004932113171575502</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>5</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>3.988022856063421</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.9437816620835349</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-3.988022856063421</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>6</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>6987732323.92538</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.002366654115427524</v>
       </c>
       <c r="G90" t="b">
         <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>5</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>3.811943329562933</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9415891447978877</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-3.811943329562933</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>6</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>7841264760.232453</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.003083226700152531</v>
       </c>
       <c r="G91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>2</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="L91" t="n">
-        <v>5.899514498926573</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8587301180309986</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-5.899514498926573</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>3407586823.954119</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.003727963789205258</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>7</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.4468982989971139</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>3.383298322190329</v>
-      </c>
-      <c r="M92" t="n">
-        <v>0.9076037002969443</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-3.383298322190329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>5451707555.165434</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001367090415125324</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>6</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="L93" t="n">
-        <v>3.577469640032393</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.9119176206236559</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-3.577469640032393</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>6</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>7683335887.897292</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.00127611659733784</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.005600517229751174</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="L94" t="n">
-        <v>6.084989355371697</v>
-      </c>
-      <c r="M94" t="n">
-        <v>-0.2533069426271155</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-6.084989355371697</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>6</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>7883172095.56417</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.00237076085376416</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>5</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>3.81650323618419</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.9080663501870799</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-3.81650323618419</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>7472955726.022157</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.00307152519080278</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>9</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693103</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.991360772331818</v>
-      </c>
-      <c r="M96" t="n">
-        <v>-0.5883484054145521</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-2.991360772331818</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>6197843604.725752</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.005494317887528167</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>5</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="L97" t="n">
-        <v>4.023622905912094</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.8896711930092752</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-4.023622905912094</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>7905801849.783998</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.004098538779066114</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>5</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>3.699189838287598</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.8601415468521851</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-3.699189838287598</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>3329949487.048298</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.005572058099340894</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>6</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="L99" t="n">
-        <v>3.608820537063223</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.8970644593663746</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-3.608820537063223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>5398857386.226389</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.002805362477708853</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>6</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>3.49199787747534</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.7957234185159346</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-3.49199787747534</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>6</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>8031045765.872136</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001747777537642633</v>
       </c>
       <c r="G101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>6</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.5180463982716509</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="L101" t="n">
-        <v>3.844878863821364</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.8796145938015805</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-3.844878863821364</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_26.xlsx
+++ b/output/fit_clients/fit_round_26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -483,19 +493,25 @@
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>6350616236.723038</v>
+        <v>2460740747.722972</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003698400488995999</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
+        <v>0.08482818122146642</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.04067823815852962</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1230370431.264565</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>4437036037.209299</v>
+        <v>2559606024.139205</v>
       </c>
       <c r="F3" t="n">
-        <v>0.006026794197701624</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
+        <v>0.1231629537024248</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.03389211616053463</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1279803138.635005</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5874379403.300703</v>
+        <v>4665437824.135631</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003807601637536095</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
+        <v>0.1323212015835693</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.03515353377461802</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2332718973.176489</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4860816236.069712</v>
+        <v>2598838732.180532</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00437385873955926</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.06954597921733946</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.04165588530066271</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>9</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1299419462.09818</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>7341297780.156322</v>
+        <v>2199790636.267756</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002763343750110325</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
+        <v>0.09586080682629931</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.04433901007289977</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1099895325.856697</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>8231913235.942457</v>
+        <v>2237988268.35605</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001259585580196242</v>
-      </c>
-      <c r="G7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
+        <v>0.1017006690226075</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.04352084048015867</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>7</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1118994172.221255</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>7588702714.666272</v>
+        <v>3229955400.919813</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002699025239952735</v>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="n">
+        <v>0.1344976340953492</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.02724835023925842</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>8</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1614977781.261532</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>5255252366.012997</v>
+        <v>1753990615.655172</v>
       </c>
       <c r="F9" t="n">
-        <v>0.003596264656680529</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
+        <v>0.1926109849410777</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0286972347405338</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>876995368.360919</v>
       </c>
     </row>
     <row r="10">
@@ -707,19 +765,25 @@
         <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3364801230.136608</v>
+        <v>4941977971.464175</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004061008557734147</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.2092150652845829</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.03383043744855034</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>11</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2470989080.337207</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4688735768.936225</v>
+        <v>3027183002.288666</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001309613011878188</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1445189822716814</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.04898463459747525</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>11</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1513591445.735869</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>6931116727.376965</v>
+        <v>2854088336.750721</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001717338249353578</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
+        <v>0.1561681379196947</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.04028012146154195</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>9</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1427044172.818457</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>6422978726.065926</v>
+        <v>4019297139.637068</v>
       </c>
       <c r="F13" t="n">
-        <v>0.004213540157241418</v>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
+        <v>0.07514849336578736</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02110825166476284</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>9</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2009648623.55863</v>
       </c>
     </row>
     <row r="14">
@@ -819,19 +901,25 @@
         <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>7066820766.484729</v>
+        <v>3833292478.440649</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002714750827938063</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
+        <v>0.1804137725408436</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.03293998649308864</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>8</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1916646213.067823</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>5503082960.453281</v>
+        <v>1246866843.789912</v>
       </c>
       <c r="F15" t="n">
-        <v>0.00374322326648873</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
+        <v>0.09211452669523112</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.03160590624710577</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>623433449.7842424</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>5497202277.308353</v>
+        <v>2216271553.660405</v>
       </c>
       <c r="F16" t="n">
-        <v>0.00542607860629247</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
+        <v>0.09599913699665728</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.04743570621589225</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1108135832.796094</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>6603192448.426169</v>
+        <v>4036206811.667591</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002967162990336348</v>
-      </c>
-      <c r="G17" t="b">
+        <v>0.119440982870986</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.0449249026917376</v>
+      </c>
+      <c r="H17" t="b">
         <v>1</v>
       </c>
-      <c r="H17" t="n">
-        <v>5</v>
+      <c r="I17" t="n">
+        <v>7</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2018103438.397019</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>5568123057.967788</v>
+        <v>3719408861.464754</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001085834704024564</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>7</v>
+        <v>0.1388613121191418</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.03125491376378965</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>8</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1859704408.648097</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>3282385593.239829</v>
+        <v>1199951720.765493</v>
       </c>
       <c r="F19" t="n">
-        <v>0.002265554720277178</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1591672149008146</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02242647547488631</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>599975938.0379094</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>3828128738.219138</v>
+        <v>1939256581.295297</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001333672897828129</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
+        <v>0.1406301136955603</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.03015153270612708</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4</v>
+      </c>
+      <c r="J20" t="n">
+        <v>969628323.2441452</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>5556667941.62044</v>
+        <v>2215206962.037066</v>
       </c>
       <c r="F21" t="n">
-        <v>0.005640488224722484</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>5</v>
+        <v>0.07598927370072681</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.03329063197642346</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1107603496.165784</v>
       </c>
     </row>
     <row r="22">
@@ -1043,19 +1173,25 @@
         <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>5059074139.535337</v>
+        <v>2975504315.077086</v>
       </c>
       <c r="F22" t="n">
-        <v>0.00406307844998944</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
+        <v>0.112744151166124</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.04871336214492997</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>7</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1487752220.332308</v>
       </c>
     </row>
     <row r="23">
@@ -1071,19 +1207,25 @@
         <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>8553136761.754671</v>
+        <v>1101858682.5084</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001629970041329863</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>5</v>
+        <v>0.1691591427587571</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.0471619315307043</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>550929394.0405591</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>6677866906.458737</v>
+        <v>3901191637.22639</v>
       </c>
       <c r="F24" t="n">
-        <v>0.004239806173745644</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
+        <v>0.1015456678806642</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.03335310503595663</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
         <v>7</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1950595793.013235</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>5964412992.170534</v>
+        <v>1483843992.375603</v>
       </c>
       <c r="F25" t="n">
-        <v>0.003891127144916215</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>5</v>
+        <v>0.1029223894156613</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02309717302824748</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>741921948.477317</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>5615783479.455687</v>
+        <v>1151454543.730578</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001234223651735533</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.08063737796568615</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.03684980888338735</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>575727280.7839688</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" t="n">
+        <v>417</v>
+      </c>
+      <c r="E27" t="n">
+        <v>4640855022.881556</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.1525140100502438</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02009297088452252</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>6</v>
       </c>
-      <c r="D27" t="n">
-        <v>517</v>
-      </c>
-      <c r="E27" t="n">
-        <v>5500723875.791533</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.003565236526289614</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>7</v>
+      <c r="J27" t="n">
+        <v>2320427489.478495</v>
       </c>
     </row>
     <row r="28">
@@ -1211,19 +1377,25 @@
         <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>8581138585.575103</v>
+        <v>3802287612.542635</v>
       </c>
       <c r="F28" t="n">
-        <v>0.004626878462772998</v>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" t="n">
-        <v>6</v>
+        <v>0.1310491659053078</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.03788279006580485</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>8</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1901143886.899781</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>6806639614.708278</v>
+        <v>3881583331.608816</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001345386607975798</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>8</v>
+        <v>0.1018484939862615</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.03524813177574094</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>12</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1940791690.697198</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>7955781509.195627</v>
+        <v>2387376330.191389</v>
       </c>
       <c r="F30" t="n">
-        <v>0.003977339938718443</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>9</v>
+        <v>0.1256660733179712</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.03757520791828584</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1193688246.453621</v>
       </c>
     </row>
     <row r="31">
@@ -1295,19 +1479,25 @@
         <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>6768381181.782484</v>
+        <v>1070513548.550897</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0034044257093933</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>5</v>
+        <v>0.07436921939375619</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.03524687730123947</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>535256755.9960916</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>4919360165.45799</v>
+        <v>1662453924.979277</v>
       </c>
       <c r="F32" t="n">
-        <v>0.00101718289911204</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.1153677505650163</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.03390871363827642</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>831227064.3002514</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>7026195217.848552</v>
+        <v>1912615434.519962</v>
       </c>
       <c r="F33" t="n">
-        <v>0.002754302956120112</v>
-      </c>
-      <c r="G33" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" t="n">
-        <v>5</v>
+        <v>0.1560386546046144</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.04960747581325596</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>8</v>
+      </c>
+      <c r="J33" t="n">
+        <v>956307805.2416985</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>5660515570.822335</v>
+        <v>1060489635.808783</v>
       </c>
       <c r="F34" t="n">
-        <v>0.004151828639532561</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>8</v>
+        <v>0.1011483980389634</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02638159737099759</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>530244845.6479842</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>6895719179.109275</v>
+        <v>834339848.9371603</v>
       </c>
       <c r="F35" t="n">
-        <v>0.001794027140236675</v>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" t="n">
-        <v>6</v>
+        <v>0.1005251254427353</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.02962713280367563</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>417169979.1922622</v>
       </c>
     </row>
     <row r="36">
@@ -1435,19 +1649,25 @@
         <v>3</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>5565656119.201745</v>
+        <v>2423097804.213795</v>
       </c>
       <c r="F36" t="n">
-        <v>0.002872639236376374</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>8</v>
+        <v>0.1584718682396146</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02627913853649401</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>6</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1211548930.032563</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
+        <v>5</v>
+      </c>
+      <c r="D37" t="n">
+        <v>493</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2789442816.63848</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.09960216931639825</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.02840962006702524</v>
+      </c>
+      <c r="H37" t="b">
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
         <v>4</v>
       </c>
-      <c r="D37" t="n">
-        <v>573</v>
-      </c>
-      <c r="E37" t="n">
-        <v>6300940707.423944</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.004970397618046024</v>
-      </c>
-      <c r="G37" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" t="n">
-        <v>5</v>
+      <c r="J37" t="n">
+        <v>1394721543.963467</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>4652074660.980234</v>
+        <v>1866298672.395447</v>
       </c>
       <c r="F38" t="n">
-        <v>0.005067951689261666</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.09139748562711014</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.02802423283731844</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>933149333.4964967</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>6231950905.312475</v>
+        <v>1907505727.740437</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002479252839239689</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
+        <v>0.1430846591781463</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02500243802711982</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>953752872.2368224</v>
       </c>
     </row>
     <row r="40">
@@ -1547,19 +1785,25 @@
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>6935389509.877103</v>
+        <v>1106617048.184077</v>
       </c>
       <c r="F40" t="n">
-        <v>0.003413084282003352</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>7</v>
+        <v>0.1487532260123458</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.03920767386110579</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>553308588.5155478</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>5730509447.387734</v>
+        <v>2606067393.87359</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001331306594505013</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
+        <v>0.1283435652677025</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.02914335064544005</v>
+      </c>
+      <c r="H41" t="b">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
         <v>7</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1303033711.634364</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>6866381078.114354</v>
+        <v>4021232127.235722</v>
       </c>
       <c r="F42" t="n">
-        <v>0.004198959286933845</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>7</v>
+        <v>0.08297113438386376</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.03869379929651506</v>
+      </c>
+      <c r="H42" t="b">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>8</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2010616094.163892</v>
       </c>
     </row>
     <row r="43">
@@ -1631,19 +1887,25 @@
         <v>4</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>6995670179.80058</v>
+        <v>3069202187.061002</v>
       </c>
       <c r="F43" t="n">
-        <v>0.005149904711474717</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>7</v>
+        <v>0.1339668302547757</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.01978104081069017</v>
+      </c>
+      <c r="H43" t="b">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>8</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1534601084.782482</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>6912127388.477881</v>
+        <v>2085340521.328602</v>
       </c>
       <c r="F44" t="n">
-        <v>0.001602917049939034</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>7</v>
+        <v>0.0835488988756346</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.03187609753469377</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1042670383.80808</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>4344746979.763854</v>
+        <v>1670461465.821257</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001349332746874926</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3</v>
+        <v>0.1197817247142317</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.0541360678893122</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>835230690.3518534</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>11052112660.33428</v>
+        <v>4561540422.139196</v>
       </c>
       <c r="F46" t="n">
-        <v>0.003719102984416725</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>4</v>
+        <v>0.1538000054195646</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.03899632495534121</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>9</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2280770212.555451</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>9068429953.537781</v>
+        <v>4426752165.315898</v>
       </c>
       <c r="F47" t="n">
-        <v>0.002282971957140432</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>4</v>
+        <v>0.1661216831078278</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.03611142530455252</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>7</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2213376105.761293</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>6755236290.243025</v>
+        <v>4254998467.165691</v>
       </c>
       <c r="F48" t="n">
-        <v>0.002656759687865866</v>
-      </c>
-      <c r="G48" t="b">
+        <v>0.1004161249540286</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.03674050918575107</v>
+      </c>
+      <c r="H48" t="b">
         <v>1</v>
       </c>
-      <c r="H48" t="n">
-        <v>4</v>
+      <c r="I48" t="n">
+        <v>8</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2127499252.91856</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>4395212000.721168</v>
+        <v>1196657880.303107</v>
       </c>
       <c r="F49" t="n">
-        <v>0.003873774002660954</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
+        <v>0.1607290549744695</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.0445994358609208</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>598329019.1641445</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>5900033547.527686</v>
+        <v>3115249681.718427</v>
       </c>
       <c r="F50" t="n">
-        <v>0.003973785949423859</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>8</v>
+        <v>0.1107292754497944</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.03936457284855906</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>9</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1557624892.291065</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>3753094763.646081</v>
+        <v>1163680650.488503</v>
       </c>
       <c r="F51" t="n">
-        <v>0.005505030996661468</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1426662073565569</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.04979410844862588</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>581840382.4342005</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>8486890128.132445</v>
+        <v>4390902100.731661</v>
       </c>
       <c r="F52" t="n">
-        <v>0.001449783507047624</v>
-      </c>
-      <c r="G52" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" t="n">
-        <v>6</v>
+        <v>0.09719042722440865</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.04617174089815624</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>11</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2195451083.622332</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>6232872312.183043</v>
+        <v>3725461101.495699</v>
       </c>
       <c r="F53" t="n">
-        <v>0.00241494156393849</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>5</v>
+        <v>0.160213451608719</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.02867928242770909</v>
+      </c>
+      <c r="H53" t="b">
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>7</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1862730532.839559</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4764135801.888181</v>
+        <v>3876143033.171969</v>
       </c>
       <c r="F54" t="n">
-        <v>0.003742213974935749</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>5</v>
+        <v>0.1022961803808593</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.03243867904184743</v>
+      </c>
+      <c r="H54" t="b">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>8</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1938071570.713805</v>
       </c>
     </row>
     <row r="55">
@@ -1967,19 +2295,25 @@
         <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>8428345504.73351</v>
+        <v>4358740496.105863</v>
       </c>
       <c r="F55" t="n">
-        <v>0.003889035399298202</v>
-      </c>
-      <c r="G55" t="b">
+        <v>0.1704567705351763</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02918309110824216</v>
+      </c>
+      <c r="H55" t="b">
         <v>1</v>
       </c>
-      <c r="H55" t="n">
-        <v>8</v>
+      <c r="I55" t="n">
+        <v>6</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2179370238.594409</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>6131358322.152832</v>
+        <v>1221735476.551606</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002946731421906012</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>3</v>
+        <v>0.101364912524448</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.05195209167499568</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>610867821.4274226</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>8656638204.02976</v>
+        <v>3214774381.238046</v>
       </c>
       <c r="F57" t="n">
-        <v>0.002973629930595147</v>
-      </c>
-      <c r="G57" t="b">
-        <v>1</v>
-      </c>
-      <c r="H57" t="n">
-        <v>6</v>
+        <v>0.1649561156427899</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02565588779392009</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>8</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1607387212.869834</v>
       </c>
     </row>
     <row r="58">
@@ -2051,19 +2397,25 @@
         <v>4</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>6718767998.839952</v>
+        <v>1758934264.174317</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002062694564536463</v>
-      </c>
-      <c r="G58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" t="n">
-        <v>3</v>
+        <v>0.1916353787019493</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.02531733443537574</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>879467139.3910474</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>6440359139.221026</v>
+        <v>4294672955.54997</v>
       </c>
       <c r="F59" t="n">
-        <v>0.003073606084428394</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>3</v>
+        <v>0.08436294899986098</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.03958012952723337</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>7</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2147336439.286844</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>5630506044.839447</v>
+        <v>3286474765.756443</v>
       </c>
       <c r="F60" t="n">
-        <v>0.003746001733582279</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
+        <v>0.1812871191647131</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.03183052035140685</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>8</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1643237483.018257</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>7169670714.854903</v>
+        <v>3038758788.782496</v>
       </c>
       <c r="F61" t="n">
-        <v>0.004700538822446165</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>6</v>
+        <v>0.1100770236014166</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.02833219640905871</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>9</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1519379370.959581</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>5590227323.375591</v>
+        <v>1467165234.673656</v>
       </c>
       <c r="F62" t="n">
-        <v>0.00323988022164686</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>4</v>
+        <v>0.1560446684906409</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.03631157423122676</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>733582595.2202649</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>6493257546.655239</v>
+        <v>3671086342.758254</v>
       </c>
       <c r="F63" t="n">
-        <v>0.004421728816472115</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>6</v>
+        <v>0.1017930208447674</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.03018706713752924</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>7</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1835543248.218373</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4709566258.140619</v>
+        <v>3940347649.698904</v>
       </c>
       <c r="F64" t="n">
-        <v>0.005277798765478325</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1537276048868829</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.03279687825603381</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>8</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1970173856.234144</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5414492273.175839</v>
+        <v>4121837212.918754</v>
       </c>
       <c r="F65" t="n">
-        <v>0.004281504570509029</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>7</v>
+        <v>0.1244774898716109</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02709077556557289</v>
+      </c>
+      <c r="H65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>9</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2060918617.544671</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4550372592.790574</v>
+        <v>5165615423.174563</v>
       </c>
       <c r="F66" t="n">
-        <v>0.002581557066915523</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>5</v>
+        <v>0.1393413308804547</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.03548890929209814</v>
+      </c>
+      <c r="H66" t="b">
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>7</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2582807747.424017</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>6091267581.813245</v>
+        <v>2849889367.798178</v>
       </c>
       <c r="F67" t="n">
-        <v>0.004953788875916258</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>4</v>
+        <v>0.07274442247336239</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.03183237209613035</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>8</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1424944714.646092</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>8566219368.732382</v>
+        <v>6078131859.019107</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002754301697108487</v>
-      </c>
-      <c r="G68" t="b">
-        <v>1</v>
-      </c>
-      <c r="H68" t="n">
-        <v>5</v>
+        <v>0.1394021361004776</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.04722129966000609</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>8</v>
+      </c>
+      <c r="J68" t="n">
+        <v>3039066050.913439</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>4569820852.269358</v>
+        <v>2241301923.942985</v>
       </c>
       <c r="F69" t="n">
-        <v>0.001224606380480195</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>4</v>
+        <v>0.1548880767849309</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.05124814344032849</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1120650997.91086</v>
       </c>
     </row>
     <row r="70">
@@ -2387,19 +2805,25 @@
         <v>5</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>6357818760.03066</v>
+        <v>3662649593.204374</v>
       </c>
       <c r="F70" t="n">
-        <v>0.00264118878277328</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>6</v>
+        <v>0.08583678035357589</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.0305304864605529</v>
+      </c>
+      <c r="H70" t="b">
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>7</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1831324816.44015</v>
       </c>
     </row>
     <row r="71">
@@ -2415,19 +2839,25 @@
         <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3454587602.417741</v>
+        <v>4345879166.362952</v>
       </c>
       <c r="F71" t="n">
-        <v>0.003194856234907021</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1453764759271373</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.03349518634186456</v>
+      </c>
+      <c r="H71" t="b">
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>9</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2172939639.843252</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>5652878514.409589</v>
+        <v>1632495121.512637</v>
       </c>
       <c r="F72" t="n">
-        <v>0.00194105398746586</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>5</v>
+        <v>0.08894859267247546</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.04341132086847151</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>816247566.1815884</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>6914802547.307686</v>
+        <v>2318513545.917581</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001407079789785349</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>7</v>
+        <v>0.06827308491236203</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.04933681615776807</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>10</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1159256831.026515</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>5044170081.76113</v>
+        <v>2560771510.139484</v>
       </c>
       <c r="F74" t="n">
-        <v>0.004573845953973226</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>7</v>
+        <v>0.1318321285819464</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.0244562792002246</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>9</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1280385858.189811</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>7559218695.06938</v>
+        <v>1783737507.466017</v>
       </c>
       <c r="F75" t="n">
-        <v>0.003074087049115611</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>5</v>
+        <v>0.102322608623256</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.03369195120065779</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>891868738.0021811</v>
       </c>
     </row>
     <row r="76">
@@ -2555,19 +3009,25 @@
         <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5284001018.689651</v>
+        <v>5062250318.57187</v>
       </c>
       <c r="F76" t="n">
-        <v>0.003019723289994821</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
+        <v>0.1191168728941829</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.0209706216973535</v>
+      </c>
+      <c r="H76" t="b">
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
         <v>5</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2531125188.316504</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>7759427253.992794</v>
+        <v>2249945998.264251</v>
       </c>
       <c r="F77" t="n">
-        <v>0.004791807775367825</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>9</v>
+        <v>0.1594614467927314</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02071122965951746</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1124973097.278946</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>5457063562.665739</v>
+        <v>3780499177.020121</v>
       </c>
       <c r="F78" t="n">
-        <v>0.005014797553787852</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>5</v>
+        <v>0.1308946256294838</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.05629120865472247</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>9</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1890249569.747488</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>6551015276.795127</v>
+        <v>1773896429.306246</v>
       </c>
       <c r="F79" t="n">
-        <v>0.002607537602302198</v>
-      </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="n">
-        <v>5</v>
+        <v>0.141511897516772</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.03272364348238389</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>886948296.5031209</v>
       </c>
     </row>
     <row r="80">
@@ -2667,19 +3145,25 @@
         <v>5</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>6178912672.464113</v>
+        <v>4466682342.734109</v>
       </c>
       <c r="F80" t="n">
-        <v>0.003084300522657249</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>9</v>
+        <v>0.1050872124538804</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.03495720517197676</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>5</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2233341193.825038</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>7092826814.142289</v>
+        <v>3683045453.69467</v>
       </c>
       <c r="F81" t="n">
-        <v>0.004856010587792839</v>
-      </c>
-      <c r="G81" t="b">
+        <v>0.1041443917568108</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.02068729164090424</v>
+      </c>
+      <c r="H81" t="b">
         <v>1</v>
       </c>
-      <c r="H81" t="n">
+      <c r="I81" t="n">
         <v>5</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1841522678.036496</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>8645103562.755953</v>
+        <v>4500143568.299891</v>
       </c>
       <c r="F82" t="n">
-        <v>0.004934597046031036</v>
-      </c>
-      <c r="G82" t="b">
-        <v>1</v>
-      </c>
-      <c r="H82" t="n">
-        <v>4</v>
+        <v>0.1721842734987978</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02086523587649963</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>9</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2250071795.729341</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>10080563096.83922</v>
+        <v>1662469636.045612</v>
       </c>
       <c r="F83" t="n">
-        <v>0.003110929128206842</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>8</v>
+        <v>0.1282255286726208</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.03807316505502621</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>831234760.9974965</v>
       </c>
     </row>
     <row r="84">
@@ -2779,19 +3281,25 @@
         <v>3</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>5417729806.580007</v>
+        <v>2043382221.049873</v>
       </c>
       <c r="F84" t="n">
-        <v>0.004593299268084981</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>7</v>
+        <v>0.1151737529766123</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.05202910364410677</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1021691108.968111</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>4979172324.122812</v>
+        <v>3414211780.771298</v>
       </c>
       <c r="F85" t="n">
-        <v>0.003429615790344362</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
+        <v>0.1515532977019383</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.04571546941999914</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>10</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1707105996.022828</v>
       </c>
     </row>
     <row r="86">
@@ -2835,19 +3349,25 @@
         <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>7667177243.234579</v>
+        <v>2543894313.44291</v>
       </c>
       <c r="F86" t="n">
-        <v>0.001939908780651989</v>
-      </c>
-      <c r="G86" t="b">
+        <v>0.1169503757545614</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.01976581261318692</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>1</v>
       </c>
-      <c r="H86" t="n">
-        <v>8</v>
+      <c r="J86" t="n">
+        <v>1271947259.688327</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>3895977187.650068</v>
+        <v>1007291743.737701</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001579118359369803</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1343976891355223</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.0383772163842629</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>503645877.8307754</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>8872903597.49789</v>
+        <v>2428886749.70598</v>
       </c>
       <c r="F88" t="n">
-        <v>0.005672423263932323</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>6</v>
+        <v>0.1176648646581727</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.02511645697384206</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>10</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1214443348.610313</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>5243184190.902617</v>
+        <v>2443187337.957274</v>
       </c>
       <c r="F89" t="n">
-        <v>0.004932113171575502</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>6</v>
+        <v>0.1061913689085804</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.04125444624256208</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>9</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1221593747.719357</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>6987732323.92538</v>
+        <v>1564562198.267138</v>
       </c>
       <c r="F90" t="n">
-        <v>0.002366654115427524</v>
-      </c>
-      <c r="G90" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90" t="n">
-        <v>3</v>
+        <v>0.128727536256839</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.0537554468403928</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>782281089.4680572</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>7841264760.232453</v>
+        <v>1474961978.872132</v>
       </c>
       <c r="F91" t="n">
-        <v>0.003083226700152531</v>
-      </c>
-      <c r="G91" t="b">
-        <v>1</v>
-      </c>
-      <c r="H91" t="n">
-        <v>7</v>
+        <v>0.1924343189889599</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.05511438328386266</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>737481031.4775783</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>3407586823.954119</v>
+        <v>2694028327.662042</v>
       </c>
       <c r="F92" t="n">
-        <v>0.003727963789205258</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.1069742430062589</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.04636266824269478</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>9</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1347014162.236939</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5451707555.165434</v>
+        <v>3606953339.387611</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001367090415125324</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>9</v>
+        <v>0.1228890394575539</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.04550976149885957</v>
+      </c>
+      <c r="H93" t="b">
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>7</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1803476695.535628</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3618,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>7683335887.897292</v>
+        <v>2104657948.839673</v>
       </c>
       <c r="F94" t="n">
-        <v>0.00127611659733784</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>9</v>
+        <v>0.1467686448792714</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.02709704240187119</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1052328986.208659</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
+        <v>2</v>
+      </c>
+      <c r="D95" t="n">
+        <v>433</v>
+      </c>
+      <c r="E95" t="n">
+        <v>3053031267.487124</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.1161816995266523</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.0496323536350407</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>6</v>
       </c>
-      <c r="D95" t="n">
-        <v>511</v>
-      </c>
-      <c r="E95" t="n">
-        <v>7883172095.56417</v>
-      </c>
-      <c r="F95" t="n">
-        <v>0.00237076085376416</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>7</v>
+      <c r="J95" t="n">
+        <v>1526515629.420445</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>7472955726.022157</v>
+        <v>1771889902.819879</v>
       </c>
       <c r="F96" t="n">
-        <v>0.00307152519080278</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>7</v>
+        <v>0.09326226818679796</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.03420971594544316</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>885944962.5034853</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>6197843604.725752</v>
+        <v>3284417771.454058</v>
       </c>
       <c r="F97" t="n">
-        <v>0.005494317887528167</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>7</v>
+        <v>0.118114958518562</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02090936799988711</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>9</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1642208884.392248</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>7905801849.783998</v>
+        <v>3016489717.611612</v>
       </c>
       <c r="F98" t="n">
-        <v>0.004098538779066114</v>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>10</v>
+        <v>0.09612824410016819</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02563237757606047</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>7</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1508244844.402551</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3329949487.048298</v>
+        <v>2296267366.512768</v>
       </c>
       <c r="F99" t="n">
-        <v>0.005572058099340894</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.09618561905445151</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.03547063168145644</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>8</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1148133617.779513</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>5398857386.226389</v>
+        <v>4121602718.646627</v>
       </c>
       <c r="F100" t="n">
-        <v>0.002805362477708853</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
+        <v>0.1359383210214182</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.0229743697513917</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>8</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2060801439.472748</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>8031045765.872136</v>
+        <v>2268186181.253305</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001747777537642633</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>9</v>
+        <v>0.1717197944828992</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.05054900904453375</v>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>10</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1134093082.780542</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_26.xlsx
+++ b/output/fit_clients/fit_round_26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2460740747.722972</v>
+        <v>2267199272.317931</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08482818122146642</v>
+        <v>0.07313365143338715</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04067823815852962</v>
+        <v>0.03103591355219857</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1230370431.264565</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2559606024.139205</v>
+        <v>2423135305.382171</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1231629537024248</v>
+        <v>0.1455467433570485</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03389211616053463</v>
+        <v>0.0430640089358135</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
         <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1279803138.635005</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4665437824.135631</v>
+        <v>3992151398.61735</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1323212015835693</v>
+        <v>0.1485448927658458</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03515353377461802</v>
+        <v>0.02555691609399663</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2332718973.176489</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2598838732.180532</v>
+        <v>2814951136.823701</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06954597921733946</v>
+        <v>0.0751266409679773</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04165588530066271</v>
+        <v>0.03862059489808399</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>9</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1299419462.09818</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2199790636.267756</v>
+        <v>2790436245.527877</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09586080682629931</v>
+        <v>0.1410458795124848</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04433901007289977</v>
+        <v>0.04913702222418581</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1099895325.856697</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2237988268.35605</v>
+        <v>2040358512.08889</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1017006690226075</v>
+        <v>0.0692732138984363</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04352084048015867</v>
+        <v>0.04902017453565188</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>7</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1118994172.221255</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3229955400.919813</v>
+        <v>3186189234.051019</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1344976340953492</v>
+        <v>0.1783327185606823</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02724835023925842</v>
+        <v>0.03030103231247974</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>8</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1614977781.261532</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1753990615.655172</v>
+        <v>1722795736.569813</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1926109849410777</v>
+        <v>0.1654017061608339</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0286972347405338</v>
+        <v>0.03313992656706721</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>876995368.360919</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4941977971.464175</v>
+        <v>4494066613.486008</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2092150652845829</v>
+        <v>0.1310366343693437</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03383043744855034</v>
+        <v>0.04226233049294654</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>11</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2470989080.337207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3027183002.288666</v>
+        <v>3845428745.270978</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1445189822716814</v>
+        <v>0.130291575022712</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04898463459747525</v>
+        <v>0.04929544997350672</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>11</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1513591445.735869</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2854088336.750721</v>
+        <v>2186010126.374197</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1561681379196947</v>
+        <v>0.1615678390622495</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04028012146154195</v>
+        <v>0.05100173027397718</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>9</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1427044172.818457</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4019297139.637068</v>
+        <v>3801606291.825962</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07514849336578736</v>
+        <v>0.07138375591670337</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02110825166476284</v>
+        <v>0.02303121186609468</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>9</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2009648623.55863</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3833292478.440649</v>
+        <v>2780406826.595176</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1804137725408436</v>
+        <v>0.1658717735892399</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03293998649308864</v>
+        <v>0.030547909478154</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>8</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1916646213.067823</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1246866843.789912</v>
+        <v>1821203416.831546</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09211452669523112</v>
+        <v>0.07280738279229172</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03160590624710577</v>
+        <v>0.03322377020304396</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>623433449.7842424</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2216271553.660405</v>
+        <v>2833335626.582822</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09599913699665728</v>
+        <v>0.07119432850859897</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04743570621589225</v>
+        <v>0.04164381925813005</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>4</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1108135832.796094</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4036206811.667591</v>
+        <v>3857995286.994778</v>
       </c>
       <c r="F17" t="n">
-        <v>0.119440982870986</v>
+        <v>0.169058601501132</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0449249026917376</v>
+        <v>0.03945972427501564</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>7</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2018103438.397019</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3719408861.464754</v>
+        <v>3209370653.614294</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1388613121191418</v>
+        <v>0.1658822461693467</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03125491376378965</v>
+        <v>0.02955060141604806</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>8</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1859704408.648097</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1199951720.765493</v>
+        <v>996221190.259612</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1591672149008146</v>
+        <v>0.1773302803751055</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02242647547488631</v>
+        <v>0.02372806673396945</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>599975938.0379094</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1939256581.295297</v>
+        <v>1701222944.672802</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1406301136955603</v>
+        <v>0.1210852036487589</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03015153270612708</v>
+        <v>0.02908259523895232</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>4</v>
-      </c>
-      <c r="J20" t="n">
-        <v>969628323.2441452</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2215206962.037066</v>
+        <v>2249646467.740671</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07598927370072681</v>
+        <v>0.0678640562740937</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03329063197642346</v>
+        <v>0.03647755500350049</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1107603496.165784</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2975504315.077086</v>
+        <v>4020689845.589914</v>
       </c>
       <c r="F22" t="n">
-        <v>0.112744151166124</v>
+        <v>0.0985173883872493</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04871336214492997</v>
+        <v>0.04970694063806413</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>7</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1487752220.332308</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1101858682.5084</v>
+        <v>1403148188.920758</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1691591427587571</v>
+        <v>0.1786550693940595</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0471619315307043</v>
+        <v>0.04347368235572172</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>550929394.0405591</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3901191637.22639</v>
+        <v>3275274218.827687</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1015456678806642</v>
+        <v>0.1463247202558183</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03335310503595663</v>
+        <v>0.02365106238639459</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>7</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1950595793.013235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1483843992.375603</v>
+        <v>1205249417.470868</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1029223894156613</v>
+        <v>0.08820079910023064</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02309717302824748</v>
+        <v>0.01971705381510411</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>741921948.477317</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1151454543.730578</v>
+        <v>1168170164.990645</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08063737796568615</v>
+        <v>0.09001026394534491</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03684980888338735</v>
+        <v>0.03427170530118669</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>575727280.7839688</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4640855022.881556</v>
+        <v>3111998569.181473</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1525140100502438</v>
+        <v>0.123740700971619</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02009297088452252</v>
+        <v>0.02309451668735275</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>6</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2320427489.478495</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3802287612.542635</v>
+        <v>3151932079.678672</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1310491659053078</v>
+        <v>0.09412021099374676</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03788279006580485</v>
+        <v>0.03915514551588967</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>8</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1901143886.899781</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3881583331.608816</v>
+        <v>5602115418.343763</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1018484939862615</v>
+        <v>0.1503934161122785</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03524813177574094</v>
+        <v>0.04130748921380027</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>12</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1940791690.697198</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2387376330.191389</v>
+        <v>2390206460.896748</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1256660733179712</v>
+        <v>0.08698356743586061</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03757520791828584</v>
+        <v>0.0258928095403336</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1193688246.453621</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1070513548.550897</v>
+        <v>946048313.2155895</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07436921939375619</v>
+        <v>0.09494301351391281</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03524687730123947</v>
+        <v>0.04371432841445096</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>535256755.9960916</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1662453924.979277</v>
+        <v>1676370633.043578</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1153677505650163</v>
+        <v>0.1069179390539796</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03390871363827642</v>
+        <v>0.02550399386511846</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>831227064.3002514</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1912615434.519962</v>
+        <v>2501196249.774999</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1560386546046144</v>
+        <v>0.1406441640520989</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04960747581325596</v>
+        <v>0.04202271707163537</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>8</v>
-      </c>
-      <c r="J33" t="n">
-        <v>956307805.2416985</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1060489635.808783</v>
+        <v>1178882424.280578</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1011483980389634</v>
+        <v>0.08096405134081172</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02638159737099759</v>
+        <v>0.0219380647361204</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>530244845.6479842</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>834339848.9371603</v>
+        <v>1090159931.30299</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1005251254427353</v>
+        <v>0.1168140437085573</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02962713280367563</v>
+        <v>0.03028500761581214</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>417169979.1922622</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2423097804.213795</v>
+        <v>2958384646.230419</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1584718682396146</v>
+        <v>0.1547738026150211</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02627913853649401</v>
+        <v>0.01789230945167078</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>6</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1211548930.032563</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2789442816.63848</v>
+        <v>1836116931.111624</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09960216931639825</v>
+        <v>0.08289028932335642</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02840962006702524</v>
+        <v>0.02561791794166404</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>4</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1394721543.963467</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1866298672.395447</v>
+        <v>1957119283.386739</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09139748562711014</v>
+        <v>0.07597365955209255</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02802423283731844</v>
+        <v>0.03236824522896528</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>933149333.4964967</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1907505727.740437</v>
+        <v>1497410773.901936</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1430846591781463</v>
+        <v>0.1649571129209321</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02500243802711982</v>
+        <v>0.02491759223284589</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>953752872.2368224</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1106617048.184077</v>
+        <v>1126837747.097688</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1487532260123458</v>
+        <v>0.1395188986977925</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03920767386110579</v>
+        <v>0.05362876977394479</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>553308588.5155478</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2606067393.87359</v>
+        <v>2894931687.22122</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1283435652677025</v>
+        <v>0.103761419325563</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02914335064544005</v>
+        <v>0.03276013652415143</v>
       </c>
       <c r="H41" t="b">
         <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>7</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1303033711.634364</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4021232127.235722</v>
+        <v>3007211111.13215</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08297113438386376</v>
+        <v>0.1277415405889236</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03869379929651506</v>
+        <v>0.02847592420903214</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>8</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2010616094.163892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3069202187.061002</v>
+        <v>2470395324.164578</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1339668302547757</v>
+        <v>0.1238956744887128</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01978104081069017</v>
+        <v>0.01722089906592134</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>8</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1534601084.782482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2085340521.328602</v>
+        <v>2245124462.837617</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0835488988756346</v>
+        <v>0.09135988740232762</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03187609753469377</v>
+        <v>0.03183150622968771</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1042670383.80808</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1670461465.821257</v>
+        <v>2092066899.85276</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1197817247142317</v>
+        <v>0.1364158495475015</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0541360678893122</v>
+        <v>0.05343258040087884</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>835230690.3518534</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4561540422.139196</v>
+        <v>3945114959.238357</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1538000054195646</v>
+        <v>0.1777318130247804</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03899632495534121</v>
+        <v>0.04323242891697823</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>9</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2280770212.555451</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4426752165.315898</v>
+        <v>4438905727.278294</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1661216831078278</v>
+        <v>0.1792375171258233</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03611142530455252</v>
+        <v>0.04291417865961612</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>7</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2213376105.761293</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4254998467.165691</v>
+        <v>3136850191.699129</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1004161249540286</v>
+        <v>0.1072048956753175</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03674050918575107</v>
+        <v>0.03703202795179473</v>
       </c>
       <c r="H48" t="b">
         <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>8</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2127499252.91856</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1196657880.303107</v>
+        <v>1427900414.4506</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1607290549744695</v>
+        <v>0.1650163392857511</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0445994358609208</v>
+        <v>0.04221793947456445</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>598329019.1641445</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3115249681.718427</v>
+        <v>3225922735.777994</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1107292754497944</v>
+        <v>0.1725815826825586</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03936457284855906</v>
+        <v>0.05054610433341438</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>9</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1557624892.291065</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1163680650.488503</v>
+        <v>1463159295.904032</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1426662073565569</v>
+        <v>0.1403572428065676</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04979410844862588</v>
+        <v>0.0415975250449713</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>581840382.4342005</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4390902100.731661</v>
+        <v>5177048996.037175</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09719042722440865</v>
+        <v>0.1045101981009261</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04617174089815624</v>
+        <v>0.0528020974208552</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>11</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2195451083.622332</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3725461101.495699</v>
+        <v>2754239498.240057</v>
       </c>
       <c r="F53" t="n">
-        <v>0.160213451608719</v>
+        <v>0.1939057580483413</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02867928242770909</v>
+        <v>0.02718810366662195</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>7</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1862730532.839559</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3876143033.171969</v>
+        <v>4873367625.065098</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1022961803808593</v>
+        <v>0.150654459183481</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03243867904184743</v>
+        <v>0.04182619846811457</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>8</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1938071570.713805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4358740496.105863</v>
+        <v>3593716847.015048</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1704567705351763</v>
+        <v>0.1949104710988537</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02918309110824216</v>
+        <v>0.03018040947455697</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>6</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2179370238.594409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1221735476.551606</v>
+        <v>1758303177.426694</v>
       </c>
       <c r="F56" t="n">
-        <v>0.101364912524448</v>
+        <v>0.1059671863247503</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05195209167499568</v>
+        <v>0.04882849238710325</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>610867821.4274226</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3214774381.238046</v>
+        <v>3660707924.119131</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1649561156427899</v>
+        <v>0.1110105263121229</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02565588779392009</v>
+        <v>0.02329877537442217</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>8</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1607387212.869834</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1758934264.174317</v>
+        <v>1526883729.479776</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1916353787019493</v>
+        <v>0.14752272722532</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02531733443537574</v>
+        <v>0.03623249123210837</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>879467139.3910474</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4294672955.54997</v>
+        <v>4703847873.785687</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08436294899986098</v>
+        <v>0.1143029640713073</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03958012952723337</v>
+        <v>0.03520876204962319</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>7</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2147336439.286844</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3286474765.756443</v>
+        <v>3687073080.942817</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1812871191647131</v>
+        <v>0.1937559272992768</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03183052035140685</v>
+        <v>0.03109281523036247</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>8</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1643237483.018257</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3038758788.782496</v>
+        <v>3228804276.539817</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1100770236014166</v>
+        <v>0.1301000639373139</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02833219640905871</v>
+        <v>0.0270362875965573</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>9</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1519379370.959581</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1467165234.673656</v>
+        <v>2076534898.003582</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1560446684906409</v>
+        <v>0.1599459479124303</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03631157423122676</v>
+        <v>0.03587095274674153</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>733582595.2202649</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3671086342.758254</v>
+        <v>4617781459.161987</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1017930208447674</v>
+        <v>0.09328368281104869</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03018706713752924</v>
+        <v>0.04035388308227485</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>7</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1835543248.218373</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3940347649.698904</v>
+        <v>4604095496.167553</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1537276048868829</v>
+        <v>0.1679016363719069</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03279687825603381</v>
+        <v>0.02611298661247576</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>8</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1970173856.234144</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4121837212.918754</v>
+        <v>4999132395.802968</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1244774898716109</v>
+        <v>0.1225188197856314</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02709077556557289</v>
+        <v>0.02429167283292086</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>9</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2060918617.544671</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5165615423.174563</v>
+        <v>5408121677.95467</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1393413308804547</v>
+        <v>0.1303691386359613</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03548890929209814</v>
+        <v>0.03433062186269052</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>7</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2582807747.424017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2849889367.798178</v>
+        <v>3036497063.129223</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07274442247336239</v>
+        <v>0.07034433928042022</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03183237209613035</v>
+        <v>0.03260128430543497</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>8</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1424944714.646092</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>6078131859.019107</v>
+        <v>4792924447.588323</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1394021361004776</v>
+        <v>0.129007153316255</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04722129966000609</v>
+        <v>0.03290892743468415</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>8</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3039066050.913439</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2241301923.942985</v>
+        <v>2171798527.289217</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1548880767849309</v>
+        <v>0.1375439832740125</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05124814344032849</v>
+        <v>0.04538085254968983</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1120650997.91086</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3662649593.204374</v>
+        <v>2409010340.002535</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08583678035357589</v>
+        <v>0.09843167352005848</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0305304864605529</v>
+        <v>0.04586438747919473</v>
       </c>
       <c r="H70" t="b">
         <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>7</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1831324816.44015</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4345879166.362952</v>
+        <v>4136588307.202505</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1453764759271373</v>
+        <v>0.1414703476339178</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03349518634186456</v>
+        <v>0.0206179963351288</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>9</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2172939639.843252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1632495121.512637</v>
+        <v>2177103375.276203</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08894859267247546</v>
+        <v>0.1076877406745382</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04341132086847151</v>
+        <v>0.03447078734981328</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>816247566.1815884</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2318513545.917581</v>
+        <v>3046136640.674687</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06827308491236203</v>
+        <v>0.09654622674589397</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04933681615776807</v>
+        <v>0.03992531260460128</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>10</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1159256831.026515</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2560771510.139484</v>
+        <v>2595318762.447311</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1318321285819464</v>
+        <v>0.1467085308228762</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0244562792002246</v>
+        <v>0.0282940695937091</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>9</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1280385858.189811</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1783737507.466017</v>
+        <v>2157072563.277395</v>
       </c>
       <c r="F75" t="n">
-        <v>0.102322608623256</v>
+        <v>0.1503199763207777</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03369195120065779</v>
+        <v>0.03717437134269214</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>891868738.0021811</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5062250318.57187</v>
+        <v>4809953252.314983</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1191168728941829</v>
+        <v>0.09654803704071019</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0209706216973535</v>
+        <v>0.0313656983159134</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>5</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2531125188.316504</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2249945998.264251</v>
+        <v>1833908470.585075</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1594614467927314</v>
+        <v>0.1800486782135239</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02071122965951746</v>
+        <v>0.03037394630528727</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1124973097.278946</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3780499177.020121</v>
+        <v>3281878874.162861</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1308946256294838</v>
+        <v>0.1194202622254776</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05629120865472247</v>
+        <v>0.04001106608293205</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>9</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1890249569.747488</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1773896429.306246</v>
+        <v>1241268708.986053</v>
       </c>
       <c r="F79" t="n">
-        <v>0.141511897516772</v>
+        <v>0.1174838141101163</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03272364348238389</v>
+        <v>0.03238814793147011</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>886948296.5031209</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4466682342.734109</v>
+        <v>5551395049.928322</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1050872124538804</v>
+        <v>0.0793813743285646</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03495720517197676</v>
+        <v>0.02514046250286828</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>5</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2233341193.825038</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3683045453.69467</v>
+        <v>3931468890.972335</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1041443917568108</v>
+        <v>0.1002920403936277</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02068729164090424</v>
+        <v>0.02423465173939948</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>5</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1841522678.036496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4500143568.299891</v>
+        <v>4527209307.715522</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1721842734987978</v>
+        <v>0.1660809572229722</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02086523587649963</v>
+        <v>0.0251443417668702</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>9</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2250071795.729341</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1662469636.045612</v>
+        <v>1600805287.542932</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1282255286726208</v>
+        <v>0.1240579696269848</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03807316505502621</v>
+        <v>0.04544172645688568</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>831234760.9974965</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2043382221.049873</v>
+        <v>2224634100.776122</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1151737529766123</v>
+        <v>0.0790497846164416</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05202910364410677</v>
+        <v>0.03619533652058289</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1021691108.968111</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3414211780.771298</v>
+        <v>3532265626.770982</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1515532977019383</v>
+        <v>0.1697085809850794</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04571546941999914</v>
+        <v>0.04379354042137141</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>10</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1707105996.022828</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2543894313.44291</v>
+        <v>2332876647.685317</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1169503757545614</v>
+        <v>0.1622962738413232</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01976581261318692</v>
+        <v>0.02359322368354299</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1271947259.688327</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1007291743.737701</v>
+        <v>1323760857.468407</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1343976891355223</v>
+        <v>0.139400728633711</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0383772163842629</v>
+        <v>0.03936918065044726</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>503645877.8307754</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2428886749.70598</v>
+        <v>2379725904.403788</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1176648646581727</v>
+        <v>0.177447639686915</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02511645697384206</v>
+        <v>0.0326026914614017</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>10</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1214443348.610313</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2443187337.957274</v>
+        <v>3288869198.244076</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1061913689085804</v>
+        <v>0.1089319925206037</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04125444624256208</v>
+        <v>0.02934258919769139</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>9</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1221593747.719357</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1564562198.267138</v>
+        <v>1394042350.664402</v>
       </c>
       <c r="F90" t="n">
-        <v>0.128727536256839</v>
+        <v>0.131768771333138</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0537554468403928</v>
+        <v>0.03534300971168569</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>782281089.4680572</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1474961978.872132</v>
+        <v>1324866968.676331</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1924343189889599</v>
+        <v>0.1947152675186775</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05511438328386266</v>
+        <v>0.03884392141931218</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>737481031.4775783</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2694028327.662042</v>
+        <v>1913925120.3801</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1069742430062589</v>
+        <v>0.1019938617013648</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04636266824269478</v>
+        <v>0.03223488024900829</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>9</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1347014162.236939</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3606953339.387611</v>
+        <v>3908457073.925827</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1228890394575539</v>
+        <v>0.1111219468248632</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04550976149885957</v>
+        <v>0.03868421696525916</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>7</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1803476695.535628</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2104657948.839673</v>
+        <v>1936776454.848957</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1467686448792714</v>
+        <v>0.1618719948810102</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02709704240187119</v>
+        <v>0.03511224657309074</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1052328986.208659</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3053031267.487124</v>
+        <v>2634946312.652585</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1161816995266523</v>
+        <v>0.1289624449686</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0496323536350407</v>
+        <v>0.04378239543721184</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>6</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1526515629.420445</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1771889902.819879</v>
+        <v>2107127119.788826</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09326226818679796</v>
+        <v>0.1215700791299771</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03420971594544316</v>
+        <v>0.02948460390534397</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>885944962.5034853</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3284417771.454058</v>
+        <v>4475211230.600084</v>
       </c>
       <c r="F97" t="n">
-        <v>0.118114958518562</v>
+        <v>0.1583923808010123</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02090936799988711</v>
+        <v>0.02359868133978448</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>9</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1642208884.392248</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3016489717.611612</v>
+        <v>3740999731.96242</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09612824410016819</v>
+        <v>0.08017149185267246</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02563237757606047</v>
+        <v>0.02653903303962751</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>7</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1508244844.402551</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2296267366.512768</v>
+        <v>2743419101.617312</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09618561905445151</v>
+        <v>0.1405366973031359</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03547063168145644</v>
+        <v>0.03345135563980218</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>8</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1148133617.779513</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4121602718.646627</v>
+        <v>3650808806.387023</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1359383210214182</v>
+        <v>0.1667439833701387</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0229743697513917</v>
+        <v>0.01711724147395091</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>8</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2060801439.472748</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2268186181.253305</v>
+        <v>2732227049.694328</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1717197944828992</v>
+        <v>0.167393108968014</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05054900904453375</v>
+        <v>0.05515888129943552</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>10</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1134093082.780542</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_26.xlsx
+++ b/output/fit_clients/fit_round_26.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2267199272.317931</v>
+        <v>2467639202.37185</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07313365143338715</v>
+        <v>0.1021493358270455</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03103591355219857</v>
+        <v>0.03110761961650103</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2423135305.382171</v>
+        <v>1814307047.905897</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1455467433570485</v>
+        <v>0.1125759649045233</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0430640089358135</v>
+        <v>0.04933678883737632</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3992151398.61735</v>
+        <v>3531882885.697511</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1485448927658458</v>
+        <v>0.1588869478003831</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02555691609399663</v>
+        <v>0.02568119248824662</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2814951136.823701</v>
+        <v>2669477146.114846</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0751266409679773</v>
+        <v>0.06966906228371034</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03862059489808399</v>
+        <v>0.04538413857672216</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2790436245.527877</v>
+        <v>2719171244.624222</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1410458795124848</v>
+        <v>0.1367618536835427</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04913702222418581</v>
+        <v>0.04269555772575379</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2040358512.08889</v>
+        <v>3117220455.610332</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0692732138984363</v>
+        <v>0.07103222736504516</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04902017453565188</v>
+        <v>0.0332376494559881</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3186189234.051019</v>
+        <v>3146390793.502026</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1783327185606823</v>
+        <v>0.1757494588136184</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03030103231247974</v>
+        <v>0.02396243863858966</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1722795736.569813</v>
+        <v>1432274074.399609</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1654017061608339</v>
+        <v>0.1584784854394704</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03313992656706721</v>
+        <v>0.03430082659496012</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4494066613.486008</v>
+        <v>4366186057.176915</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1310366343693437</v>
+        <v>0.1701355561026606</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04226233049294654</v>
+        <v>0.04087322166255866</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3845428745.270978</v>
+        <v>3056502916.812069</v>
       </c>
       <c r="F11" t="n">
-        <v>0.130291575022712</v>
+        <v>0.1641238123065985</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04929544997350672</v>
+        <v>0.03472805309769123</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,16 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2186010126.374197</v>
+        <v>2807727260.043512</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1615678390622495</v>
+        <v>0.1603995265186381</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05100173027397718</v>
+        <v>0.05239397589194927</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3801606291.825962</v>
+        <v>5096937296.614162</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07138375591670337</v>
+        <v>0.07630262107052933</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02303121186609468</v>
+        <v>0.02763607183354112</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2780406826.595176</v>
+        <v>3744335640.998735</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1658717735892399</v>
+        <v>0.1269126475813192</v>
       </c>
       <c r="G14" t="n">
-        <v>0.030547909478154</v>
+        <v>0.03854620872528795</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1821203416.831546</v>
+        <v>1352252279.107146</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07280738279229172</v>
+        <v>0.1042798525375944</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03322377020304396</v>
+        <v>0.03388038853054202</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2833335626.582822</v>
+        <v>2189052187.647563</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07119432850859897</v>
+        <v>0.08855138350436177</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04164381925813005</v>
+        <v>0.03206285596608464</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3857995286.994778</v>
+        <v>5007623405.131063</v>
       </c>
       <c r="F17" t="n">
-        <v>0.169058601501132</v>
+        <v>0.109218552969588</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03945972427501564</v>
+        <v>0.05246033179404697</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,22 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3209370653.614294</v>
+        <v>3778731773.054453</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1658822461693467</v>
+        <v>0.1604845363528525</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02955060141604806</v>
+        <v>0.03128235179336893</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>996221190.259612</v>
+        <v>967910749.5473627</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1773302803751055</v>
+        <v>0.1894287218252263</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02372806673396945</v>
+        <v>0.02721440230826515</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1701222944.672802</v>
+        <v>2391239969.426198</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1210852036487589</v>
+        <v>0.1175705184520166</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02908259523895232</v>
+        <v>0.02452433452351297</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2249646467.740671</v>
+        <v>2700132852.45192</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0678640562740937</v>
+        <v>0.07273788278790329</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03647755500350049</v>
+        <v>0.02959268422130315</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4020689845.589914</v>
+        <v>4032508639.626487</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0985173883872493</v>
+        <v>0.1347801518517428</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04970694063806413</v>
+        <v>0.04169663410170012</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1403148188.920758</v>
+        <v>1411427126.429778</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1786550693940595</v>
+        <v>0.1840235026582036</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04347368235572172</v>
+        <v>0.04012030002877817</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3275274218.827687</v>
+        <v>3347553199.812418</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1463247202558183</v>
+        <v>0.1416053596774232</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02365106238639459</v>
+        <v>0.02853324260422606</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1205249417.470868</v>
+        <v>1154041497.389471</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08820079910023064</v>
+        <v>0.0926848964798082</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01971705381510411</v>
+        <v>0.0269318828183977</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1168170164.990645</v>
+        <v>1145039599.045136</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09001026394534491</v>
+        <v>0.09071248223632362</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03427170530118669</v>
+        <v>0.02844161487246591</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3111998569.181473</v>
+        <v>4330547402.291989</v>
       </c>
       <c r="F27" t="n">
-        <v>0.123740700971619</v>
+        <v>0.1062654246727104</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02309451668735275</v>
+        <v>0.01976667226055231</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3151932079.678672</v>
+        <v>2704329978.188583</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09412021099374676</v>
+        <v>0.110476461413273</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03915514551588967</v>
+        <v>0.04760534284167632</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5602115418.343763</v>
+        <v>4321889347.952375</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1503934161122785</v>
+        <v>0.1017873389114798</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04130748921380027</v>
+        <v>0.04036636204276239</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2390206460.896748</v>
+        <v>1663446265.386714</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08698356743586061</v>
+        <v>0.1239039303456633</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0258928095403336</v>
+        <v>0.02780042946160695</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>946048313.2155895</v>
+        <v>1292795487.718031</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09494301351391281</v>
+        <v>0.07641730491347525</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04371432841445096</v>
+        <v>0.03437424047542152</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1676370633.043578</v>
+        <v>1709993097.501442</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1069179390539796</v>
+        <v>0.07715850718629186</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02550399386511846</v>
+        <v>0.03442263217624245</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2501196249.774999</v>
+        <v>2168175394.807619</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1406441640520989</v>
+        <v>0.1412642860528004</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04202271707163537</v>
+        <v>0.03963030546944292</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1178882424.280578</v>
+        <v>1097081392.622326</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08096405134081172</v>
+        <v>0.1037907021691048</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0219380647361204</v>
+        <v>0.01860480477575744</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,22 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1090159931.30299</v>
+        <v>1128406143.372862</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1168140437085573</v>
+        <v>0.07505479960851415</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03028500761581214</v>
+        <v>0.03927944129125691</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2958384646.230419</v>
+        <v>3046152314.751113</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1547738026150211</v>
+        <v>0.1197098085847225</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01789230945167078</v>
+        <v>0.01840470967102459</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1836116931.111624</v>
+        <v>2642883197.611526</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08289028932335642</v>
+        <v>0.0712434812033387</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02561791794166404</v>
+        <v>0.03525765421481298</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1957119283.386739</v>
+        <v>1680705052.005857</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07597365955209255</v>
+        <v>0.1093289582859414</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03236824522896528</v>
+        <v>0.03399986640870137</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1497410773.901936</v>
+        <v>1876868797.192765</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1649571129209321</v>
+        <v>0.1411161199237133</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02491759223284589</v>
+        <v>0.03022014644779892</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,16 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1126837747.097688</v>
+        <v>1108594370.383959</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1395188986977925</v>
+        <v>0.1551018931041825</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05362876977394479</v>
+        <v>0.04496260812825918</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2894931687.22122</v>
+        <v>2924514932.820242</v>
       </c>
       <c r="F41" t="n">
-        <v>0.103761419325563</v>
+        <v>0.1247890069140212</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03276013652415143</v>
+        <v>0.04194382908461253</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3007211111.13215</v>
+        <v>3489321032.525021</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1277415405889236</v>
+        <v>0.1026922742366755</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02847592420903214</v>
+        <v>0.03208731098190936</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2470395324.164578</v>
+        <v>2095154397.189354</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1238956744887128</v>
+        <v>0.1629915090995733</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01722089906592134</v>
+        <v>0.02391222772227695</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2245124462.837617</v>
+        <v>1803975685.660984</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09135988740232762</v>
+        <v>0.09321198078760713</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03183150622968771</v>
+        <v>0.02612219416023653</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2092066899.85276</v>
+        <v>1761331621.721888</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1364158495475015</v>
+        <v>0.1657199244634621</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05343258040087884</v>
+        <v>0.04361412694747129</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3945114959.238357</v>
+        <v>3649801211.73827</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1777318130247804</v>
+        <v>0.1767423775050755</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04323242891697823</v>
+        <v>0.0550786688236194</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4438905727.278294</v>
+        <v>3346758829.610069</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1792375171258233</v>
+        <v>0.1612232227708106</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04291417865961612</v>
+        <v>0.05713840587655035</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,16 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3136850191.699129</v>
+        <v>3807196499.466377</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1072048956753175</v>
+        <v>0.1002366985726078</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03703202795179473</v>
+        <v>0.03648675521791939</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1427900414.4506</v>
+        <v>1376946523.467256</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1650163392857511</v>
+        <v>0.118849523570809</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04221793947456445</v>
+        <v>0.03351969291137299</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3225922735.777994</v>
+        <v>4022659149.969406</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1725815826825586</v>
+        <v>0.1287496359985686</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05054610433341438</v>
+        <v>0.05238252527995282</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1463159295.904032</v>
+        <v>1145466219.924586</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1403572428065676</v>
+        <v>0.1691803840809495</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0415975250449713</v>
+        <v>0.05124602047702632</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5177048996.037175</v>
+        <v>4281771502.333736</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1045101981009261</v>
+        <v>0.1282819635444506</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0528020974208552</v>
+        <v>0.04001268273909575</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2754239498.240057</v>
+        <v>3290561368.789924</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1939057580483413</v>
+        <v>0.1326535149915369</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02718810366662195</v>
+        <v>0.02940489769089746</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4873367625.065098</v>
+        <v>4834947145.402343</v>
       </c>
       <c r="F54" t="n">
-        <v>0.150654459183481</v>
+        <v>0.1450248442008294</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04182619846811457</v>
+        <v>0.03965543330562471</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3593716847.015048</v>
+        <v>3942531436.950414</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1949104710988537</v>
+        <v>0.1775811046952943</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03018040947455697</v>
+        <v>0.0265344220903454</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1758303177.426694</v>
+        <v>1697382806.899651</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1059671863247503</v>
+        <v>0.1461597806356182</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04882849238710325</v>
+        <v>0.03743995225590607</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3660707924.119131</v>
+        <v>3340749664.586717</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1110105263121229</v>
+        <v>0.1138347953871467</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02329877537442217</v>
+        <v>0.02639203557650134</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1526883729.479776</v>
+        <v>1582178274.454642</v>
       </c>
       <c r="F58" t="n">
-        <v>0.14752272722532</v>
+        <v>0.1497550906386073</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03623249123210837</v>
+        <v>0.03766390112765314</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4703847873.785687</v>
+        <v>3918751330.122872</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1143029640713073</v>
+        <v>0.1167736656519869</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03520876204962319</v>
+        <v>0.04851737376213415</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3687073080.942817</v>
+        <v>3204525551.93805</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1937559272992768</v>
+        <v>0.1615933663309632</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03109281523036247</v>
+        <v>0.02259793595499855</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3228804276.539817</v>
+        <v>2925005920.314636</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1301000639373139</v>
+        <v>0.1398328770522878</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0270362875965573</v>
+        <v>0.02487087751715838</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2076534898.003582</v>
+        <v>1362181867.239384</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1599459479124303</v>
+        <v>0.1560616492507282</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03587095274674153</v>
+        <v>0.03093809044765763</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4617781459.161987</v>
+        <v>4207341212.093619</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09328368281104869</v>
+        <v>0.0878028257050041</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04035388308227485</v>
+        <v>0.03287702686256322</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4604095496.167553</v>
+        <v>5464227116.12553</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1679016363719069</v>
+        <v>0.1555446526775611</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02611298661247576</v>
+        <v>0.02290344781692781</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4999132395.802968</v>
+        <v>3660422210.668862</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1225188197856314</v>
+        <v>0.160486650690186</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02429167283292086</v>
+        <v>0.03009713034372312</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5408121677.95467</v>
+        <v>5333304292.898276</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1303691386359613</v>
+        <v>0.1573858311203852</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03433062186269052</v>
+        <v>0.03990882205250832</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3036497063.129223</v>
+        <v>2643498343.153474</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07034433928042022</v>
+        <v>0.09535972759480991</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03260128430543497</v>
+        <v>0.04899392502106217</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,13 +2334,13 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4792924447.588323</v>
+        <v>3703397886.287426</v>
       </c>
       <c r="F68" t="n">
-        <v>0.129007153316255</v>
+        <v>0.1312187208181484</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03290892743468415</v>
+        <v>0.0423312329805723</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2171798527.289217</v>
+        <v>2309679396.745022</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1375439832740125</v>
+        <v>0.124440672357671</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04538085254968983</v>
+        <v>0.03656465602237991</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2409010340.002535</v>
+        <v>3531533676.097349</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09843167352005848</v>
+        <v>0.06994443459664655</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04586438747919473</v>
+        <v>0.03765681832184606</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4136588307.202505</v>
+        <v>5140494252.676804</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1414703476339178</v>
+        <v>0.1846906873762642</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0206179963351288</v>
+        <v>0.0325797464332806</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2177103375.276203</v>
+        <v>2171552368.788915</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1076877406745382</v>
+        <v>0.06825082743165034</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03447078734981328</v>
+        <v>0.04997784644605669</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3046136640.674687</v>
+        <v>2328487163.479537</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09654622674589397</v>
+        <v>0.0826002088188722</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03992531260460128</v>
+        <v>0.04614613796222095</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2595318762.447311</v>
+        <v>3196938310.849801</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1467085308228762</v>
+        <v>0.1354553063887674</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0282940695937091</v>
+        <v>0.02476698072587948</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2157072563.277395</v>
+        <v>1749535735.325809</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1503199763207777</v>
+        <v>0.1303919321762751</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03717437134269214</v>
+        <v>0.03647854529465574</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4809953252.314983</v>
+        <v>4894792318.453518</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09654803704071019</v>
+        <v>0.1002240852968472</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0313656983159134</v>
+        <v>0.02958048031936637</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1833908470.585075</v>
+        <v>1671842708.144174</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1800486782135239</v>
+        <v>0.1468801878749658</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03037394630528727</v>
+        <v>0.02744858105850325</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3281878874.162861</v>
+        <v>4432277986.056463</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1194202622254776</v>
+        <v>0.1093138237744738</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04001106608293205</v>
+        <v>0.04756246795543392</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1241268708.986053</v>
+        <v>1592066534.458804</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1174838141101163</v>
+        <v>0.1769750069406547</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03238814793147011</v>
+        <v>0.03585088839234695</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5551395049.928322</v>
+        <v>4654004141.771014</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0793813743285646</v>
+        <v>0.09549652992569727</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02514046250286828</v>
+        <v>0.02942045313094875</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3931468890.972335</v>
+        <v>4755423965.735472</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1002920403936277</v>
+        <v>0.09053033317641666</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02423465173939948</v>
+        <v>0.02303316664949401</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4527209307.715522</v>
+        <v>4176186145.118822</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1660809572229722</v>
+        <v>0.1535195608023406</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0251443417668702</v>
+        <v>0.02924032211796721</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1600805287.542932</v>
+        <v>2121613449.47932</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1240579696269848</v>
+        <v>0.104728077965923</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04544172645688568</v>
+        <v>0.04386188180331421</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2224634100.776122</v>
+        <v>2212054660.927672</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0790497846164416</v>
+        <v>0.09538722810173841</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03619533652058289</v>
+        <v>0.04148845876240779</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3532265626.770982</v>
+        <v>2314897164.304885</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1697085809850794</v>
+        <v>0.1713329808307147</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04379354042137141</v>
+        <v>0.03448326255825739</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2332876647.685317</v>
+        <v>2768315394.345671</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1622962738413232</v>
+        <v>0.163133457035387</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02359322368354299</v>
+        <v>0.02641164019726419</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,16 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1323760857.468407</v>
+        <v>984773454.754783</v>
       </c>
       <c r="F87" t="n">
-        <v>0.139400728633711</v>
+        <v>0.1145196977948883</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03936918065044726</v>
+        <v>0.03432652206262761</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2379725904.403788</v>
+        <v>3461210115.954973</v>
       </c>
       <c r="F88" t="n">
-        <v>0.177447639686915</v>
+        <v>0.1550316588443737</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0326026914614017</v>
+        <v>0.03274251461474396</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3288869198.244076</v>
+        <v>2308041529.605364</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1089319925206037</v>
+        <v>0.1260474358563461</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02934258919769139</v>
+        <v>0.03720431704061455</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1394042350.664402</v>
+        <v>1546379085.054139</v>
       </c>
       <c r="F90" t="n">
-        <v>0.131768771333138</v>
+        <v>0.1225291991423396</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03534300971168569</v>
+        <v>0.05451566614251661</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1324866968.676331</v>
+        <v>1274887447.932192</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1947152675186775</v>
+        <v>0.1861467412932966</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03884392141931218</v>
+        <v>0.05319994490203895</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1913925120.3801</v>
+        <v>2872123815.004494</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1019938617013648</v>
+        <v>0.106017216189137</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03223488024900829</v>
+        <v>0.03496630801615718</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3908457073.925827</v>
+        <v>4006632553.61542</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1111219468248632</v>
+        <v>0.09227520417179078</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03868421696525916</v>
+        <v>0.04170560909064887</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1936776454.848957</v>
+        <v>1961958103.598578</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1618719948810102</v>
+        <v>0.1459244643975476</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03511224657309074</v>
+        <v>0.04316767905439773</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2634946312.652585</v>
+        <v>2577549910.710688</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1289624449686</v>
+        <v>0.1294418258263372</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04378239543721184</v>
+        <v>0.03436932857174418</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2107127119.788826</v>
+        <v>1820500953.762504</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1215700791299771</v>
+        <v>0.1104694329664671</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02948460390534397</v>
+        <v>0.0406984602929444</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4475211230.600084</v>
+        <v>3240337485.015409</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1583923808010123</v>
+        <v>0.1477313535213372</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02359868133978448</v>
+        <v>0.02029687500452578</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3740999731.96242</v>
+        <v>3796743327.705724</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08017149185267246</v>
+        <v>0.1026366700483357</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02653903303962751</v>
+        <v>0.02476640709885749</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2743419101.617312</v>
+        <v>2789717492.731674</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1405366973031359</v>
+        <v>0.1070351667782492</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03345135563980218</v>
+        <v>0.02610953374027311</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3650808806.387023</v>
+        <v>3747611215.596228</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1667439833701387</v>
+        <v>0.1265149093830125</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01711724147395091</v>
+        <v>0.02776201823524476</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,22 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2732227049.694328</v>
+        <v>3551641043.223365</v>
       </c>
       <c r="F101" t="n">
-        <v>0.167393108968014</v>
+        <v>0.1458008919220103</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05515888129943552</v>
+        <v>0.0432190155222793</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_26.xlsx
+++ b/output/fit_clients/fit_round_26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2467639202.37185</v>
+        <v>1792026159.398251</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1021493358270455</v>
+        <v>0.104780264115221</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03110761961650103</v>
+        <v>0.02817762775731573</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1814307047.905897</v>
+        <v>2649306167.404274</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1125759649045233</v>
+        <v>0.1482908300000811</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04933678883737632</v>
+        <v>0.03355967951619033</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3531882885.697511</v>
+        <v>4534437722.524784</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1588869478003831</v>
+        <v>0.1529948407446101</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02568119248824662</v>
+        <v>0.02741041734503399</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>19</v>
+      </c>
+      <c r="J4" t="n">
+        <v>26</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2669477146.114846</v>
+        <v>3837612154.793365</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06966906228371034</v>
+        <v>0.09262868532960017</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04538413857672216</v>
+        <v>0.04476121029745158</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>13</v>
+      </c>
+      <c r="J5" t="n">
+        <v>26</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2719171244.624222</v>
+        <v>2535617731.035515</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1367618536835427</v>
+        <v>0.1321429002231115</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04269555772575379</v>
+        <v>0.03808261729462985</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3117220455.610332</v>
+        <v>2724654234.519855</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07103222736504516</v>
+        <v>0.07717167134047874</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0332376494559881</v>
+        <v>0.03574105670658103</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3146390793.502026</v>
+        <v>2429817559.164263</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1757494588136184</v>
+        <v>0.2153154064798384</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02396243863858966</v>
+        <v>0.02521576276540745</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>7</v>
+      </c>
+      <c r="J8" t="n">
+        <v>22</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +746,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1432274074.399609</v>
+        <v>1780433034.318524</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1584784854394704</v>
+        <v>0.1294295884298858</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03430082659496012</v>
+        <v>0.02660427239288266</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +775,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4366186057.176915</v>
+        <v>4528308568.827968</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1701355561026606</v>
+        <v>0.153156154720304</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04087322166255866</v>
+        <v>0.03313549786816537</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>25</v>
+      </c>
+      <c r="J10" t="n">
+        <v>26</v>
+      </c>
+      <c r="K10" t="n">
+        <v>238.8751822257688</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +812,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3056502916.812069</v>
+        <v>3846570551.45005</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1641238123065985</v>
+        <v>0.1284400325224564</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03472805309769123</v>
+        <v>0.04770263962857146</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>11</v>
+      </c>
+      <c r="J11" t="n">
+        <v>26</v>
+      </c>
+      <c r="K11" t="n">
+        <v>230.5898402808678</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2807727260.043512</v>
+        <v>2822784422.066268</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1603995265186381</v>
+        <v>0.1523482252913066</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05239397589194927</v>
+        <v>0.03700671966711227</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +884,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5096937296.614162</v>
+        <v>3752943059.461277</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07630262107052933</v>
+        <v>0.08308507047022504</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02763607183354112</v>
+        <v>0.01904429322384536</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>12</v>
+      </c>
+      <c r="J13" t="n">
+        <v>25</v>
+      </c>
+      <c r="K13" t="n">
+        <v>206.0480316315597</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3744335640.998735</v>
+        <v>2942022331.279497</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1269126475813192</v>
+        <v>0.1159671588292222</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03854620872528795</v>
+        <v>0.02847438738320768</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>24</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +962,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1352252279.107146</v>
+        <v>1203505310.782792</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1042798525375944</v>
+        <v>0.07684504677017284</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03388038853054202</v>
+        <v>0.04267976263999707</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2189052187.647563</v>
+        <v>1962593384.341616</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08855138350436177</v>
+        <v>0.08277540627458742</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03206285596608464</v>
+        <v>0.03525745644626917</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,17 +1032,24 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5007623405.131063</v>
+        <v>4559538985.177323</v>
       </c>
       <c r="F17" t="n">
-        <v>0.109218552969588</v>
+        <v>0.1180723133722657</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05246033179404697</v>
+        <v>0.05104249360999988</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>12</v>
+      </c>
+      <c r="J17" t="n">
+        <v>26</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3778731773.054453</v>
+        <v>2534133627.001855</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1604845363528525</v>
+        <v>0.1815885372352954</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03128235179336893</v>
+        <v>0.02806695441126357</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>7</v>
+      </c>
+      <c r="J18" t="n">
+        <v>24</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>967910749.5473627</v>
+        <v>1009261481.221462</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1894287218252263</v>
+        <v>0.1493191112006346</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02721440230826515</v>
+        <v>0.0188160922473604</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2391239969.426198</v>
+        <v>2711706931.044304</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1175705184520166</v>
+        <v>0.135602970159181</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02452433452351297</v>
+        <v>0.02888185039647044</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1172,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2700132852.45192</v>
+        <v>2516467249.753249</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07273788278790329</v>
+        <v>0.09132367558810951</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02959268422130315</v>
+        <v>0.02978232475115827</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1201,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4032508639.626487</v>
+        <v>3860775781.975222</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1347801518517428</v>
+        <v>0.1374808800693256</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04169663410170012</v>
+        <v>0.05105284637615585</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>7</v>
+      </c>
+      <c r="J22" t="n">
+        <v>26</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1236,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1411427126.429778</v>
+        <v>1538580288.37506</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1840235026582036</v>
+        <v>0.1441444340500238</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04012030002877817</v>
+        <v>0.03788626802002135</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1271,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3347553199.812418</v>
+        <v>2832225616.020912</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1416053596774232</v>
+        <v>0.1357282143674349</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02853324260422606</v>
+        <v>0.02973225839419076</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>7</v>
+      </c>
+      <c r="J24" t="n">
+        <v>22</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1306,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1154041497.389471</v>
+        <v>900489850.1767266</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0926848964798082</v>
+        <v>0.09667420689633809</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0269318828183977</v>
+        <v>0.02313076248196806</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1341,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1145039599.045136</v>
+        <v>965407118.5075816</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09071248223632362</v>
+        <v>0.07907488812577708</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02844161487246591</v>
+        <v>0.02974566915593829</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1376,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4330547402.291989</v>
+        <v>3338032652.777227</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1062654246727104</v>
+        <v>0.1036777020906208</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01976667226055231</v>
+        <v>0.02206610707461507</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>11</v>
+      </c>
+      <c r="J27" t="n">
+        <v>24</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1214,17 +1417,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2704329978.188583</v>
+        <v>3194507614.462029</v>
       </c>
       <c r="F28" t="n">
-        <v>0.110476461413273</v>
+        <v>0.09309987360864347</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04760534284167632</v>
+        <v>0.039956706463646</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>7</v>
+      </c>
+      <c r="J28" t="n">
+        <v>23</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1446,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4321889347.952375</v>
+        <v>5666666584.739396</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1017873389114798</v>
+        <v>0.1073460955014063</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04036636204276239</v>
+        <v>0.04000654118471318</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>24</v>
+      </c>
+      <c r="J29" t="n">
+        <v>26</v>
+      </c>
+      <c r="K29" t="n">
+        <v>241.8729997467274</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1483,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1663446265.386714</v>
+        <v>1522586652.948193</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1239039303456633</v>
+        <v>0.1267231300868773</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02780042946160695</v>
+        <v>0.02779483410340553</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1518,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1292795487.718031</v>
+        <v>1061374507.029819</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07641730491347525</v>
+        <v>0.08186276761313593</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03437424047542152</v>
+        <v>0.03458451559945741</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1559,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1709993097.501442</v>
+        <v>1517876212.752638</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07715850718629186</v>
+        <v>0.1108374541031674</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03442263217624245</v>
+        <v>0.03789531615319101</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1588,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2168175394.807619</v>
+        <v>2670647404.51295</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1412642860528004</v>
+        <v>0.1734713013852882</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03963030546944292</v>
+        <v>0.04863287275810399</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1623,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1097081392.622326</v>
+        <v>994027478.2001631</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1037907021691048</v>
+        <v>0.1171638951836853</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01860480477575744</v>
+        <v>0.02660875710037134</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1658,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1128406143.372862</v>
+        <v>1160585886.910844</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07505479960851415</v>
+        <v>0.112652403844516</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03927944129125691</v>
+        <v>0.04125201375824382</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1693,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3046152314.751113</v>
+        <v>3008826602.832041</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1197098085847225</v>
+        <v>0.1567844948128491</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01840470967102459</v>
+        <v>0.0192361260767425</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1728,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2642883197.611526</v>
+        <v>1835751076.34568</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0712434812033387</v>
+        <v>0.104801525345557</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03525765421481298</v>
+        <v>0.03261326144531271</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1769,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1680705052.005857</v>
+        <v>1587572716.384541</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1093289582859414</v>
+        <v>0.1040503447556914</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03399986640870137</v>
+        <v>0.02642167798250043</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1798,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1876868797.192765</v>
+        <v>1904870033.247356</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1411161199237133</v>
+        <v>0.1707544828421817</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03022014644779892</v>
+        <v>0.02879032737690997</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1833,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1108594370.383959</v>
+        <v>1308224287.982415</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1551018931041825</v>
+        <v>0.1364541808431517</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04496260812825918</v>
+        <v>0.0372045197010684</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1868,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2924514932.820242</v>
+        <v>1929989379.797813</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1247890069140212</v>
+        <v>0.1008288729539193</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04194382908461253</v>
+        <v>0.03019730960057355</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,16 +1909,25 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3489321032.525021</v>
+        <v>2856604891.634188</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1026922742366755</v>
+        <v>0.1053868086062632</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03208731098190936</v>
+        <v>0.03816674181641306</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>8</v>
+      </c>
+      <c r="J42" t="n">
+        <v>25</v>
+      </c>
+      <c r="K42" t="n">
+        <v>118.3425429547588</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1940,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2095154397.189354</v>
+        <v>3009033705.231119</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1629915090995733</v>
+        <v>0.2033367253239481</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02391222772227695</v>
+        <v>0.01839606685442519</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1981,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1803975685.660984</v>
+        <v>1821473342.008184</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09321198078760713</v>
+        <v>0.09301396215863862</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02612219416023653</v>
+        <v>0.03490104929174523</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2016,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1761331621.721888</v>
+        <v>1574942114.392252</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1657199244634621</v>
+        <v>0.16834544699664</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04361412694747129</v>
+        <v>0.04088454556611242</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2045,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3649801211.73827</v>
+        <v>5651421635.989684</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1767423775050755</v>
+        <v>0.1576922303364336</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0550786688236194</v>
+        <v>0.04668168765233623</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>15</v>
+      </c>
+      <c r="J46" t="n">
+        <v>25</v>
+      </c>
+      <c r="K46" t="n">
+        <v>214.9798886800412</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2082,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3346758829.610069</v>
+        <v>3648955138.675059</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1612232227708106</v>
+        <v>0.1584583433796878</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05713840587655035</v>
+        <v>0.0489444494234825</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>10</v>
+      </c>
+      <c r="J47" t="n">
+        <v>26</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,17 +2123,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3807196499.466377</v>
+        <v>3557992194.343238</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1002366985726078</v>
+        <v>0.1099528061757775</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03648675521791939</v>
+        <v>0.0379056272103413</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>8</v>
+      </c>
+      <c r="J48" t="n">
+        <v>24</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2152,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1376946523.467256</v>
+        <v>1577355690.723709</v>
       </c>
       <c r="F49" t="n">
-        <v>0.118849523570809</v>
+        <v>0.1418948735958516</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03351969291137299</v>
+        <v>0.040561132223854</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2187,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4022659149.969406</v>
+        <v>3388601401.117666</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1287496359985686</v>
+        <v>0.1459970264842781</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05238252527995282</v>
+        <v>0.04155941892366045</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>8</v>
+      </c>
+      <c r="J50" t="n">
+        <v>25</v>
+      </c>
+      <c r="K50" t="n">
+        <v>168.8034136788388</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2224,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1145466219.924586</v>
+        <v>1020266798.314538</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1691803840809495</v>
+        <v>0.1696638404328036</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05124602047702632</v>
+        <v>0.03777487194991903</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2259,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4281771502.333736</v>
+        <v>3806746895.389355</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1282819635444506</v>
+        <v>0.1360630102653882</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04001268273909575</v>
+        <v>0.04727708609639131</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>19</v>
+      </c>
+      <c r="J52" t="n">
+        <v>26</v>
+      </c>
+      <c r="K52" t="n">
+        <v>230.4123522945379</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2296,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3290561368.789924</v>
+        <v>3166557100.800279</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1326535149915369</v>
+        <v>0.1867001621797312</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02940489769089746</v>
+        <v>0.0214225103483971</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>3</v>
+      </c>
+      <c r="J53" t="n">
+        <v>17</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2331,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4834947145.402343</v>
+        <v>4887073752.601047</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1450248442008294</v>
+        <v>0.1494126298207612</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03965543330562471</v>
+        <v>0.04638155992814111</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>11</v>
+      </c>
+      <c r="J54" t="n">
+        <v>26</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2366,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3942531436.950414</v>
+        <v>3741226571.743082</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1775811046952943</v>
+        <v>0.1909563203608105</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0265344220903454</v>
+        <v>0.03192718658290431</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>12</v>
+      </c>
+      <c r="J55" t="n">
+        <v>25</v>
+      </c>
+      <c r="K55" t="n">
+        <v>178.3192004969507</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1697382806.899651</v>
+        <v>1782692001.296893</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1461597806356182</v>
+        <v>0.131752160506288</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03743995225590607</v>
+        <v>0.05467723030227278</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2438,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3340749664.586717</v>
+        <v>4383830197.829707</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1138347953871467</v>
+        <v>0.1215910370210851</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02639203557650134</v>
+        <v>0.01692166087103648</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>10</v>
+      </c>
+      <c r="J57" t="n">
+        <v>25</v>
+      </c>
+      <c r="K57" t="n">
+        <v>201.8841031653377</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1582178274.454642</v>
+        <v>1630672392.68222</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1497550906386073</v>
+        <v>0.1868703890771666</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03766390112765314</v>
+        <v>0.02489054718586322</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2510,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3918751330.122872</v>
+        <v>4507878060.750565</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1167736656519869</v>
+        <v>0.09237800286233738</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04851737376213415</v>
+        <v>0.03067355949639311</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>12</v>
+      </c>
+      <c r="J59" t="n">
+        <v>26</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,22 +2545,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3204525551.93805</v>
+        <v>3606981224.124666</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1615933663309632</v>
+        <v>0.1244528861910793</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02259793595499855</v>
+        <v>0.02459259488496546</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>3</v>
+      </c>
+      <c r="J60" t="n">
+        <v>25</v>
+      </c>
+      <c r="K60" t="n">
+        <v>180.4355881735384</v>
       </c>
     </row>
     <row r="61">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2925005920.314636</v>
+        <v>2546182008.787922</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1398328770522878</v>
+        <v>0.1412995256951936</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02487087751715838</v>
+        <v>0.03179760768355532</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1362181867.239384</v>
+        <v>1334285635.022812</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1560616492507282</v>
+        <v>0.1311079719726024</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03093809044765763</v>
+        <v>0.04686708252201584</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2652,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4207341212.093619</v>
+        <v>4040471370.077217</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0878028257050041</v>
+        <v>0.09481831928432244</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03287702686256322</v>
+        <v>0.04652857995382714</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>12</v>
+      </c>
+      <c r="J63" t="n">
+        <v>26</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2687,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5464227116.12553</v>
+        <v>4723741684.957521</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1555446526775611</v>
+        <v>0.1534482322653696</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02290344781692781</v>
+        <v>0.03461907902564002</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>13</v>
+      </c>
+      <c r="J64" t="n">
+        <v>25</v>
+      </c>
+      <c r="K64" t="n">
+        <v>201.0884764228127</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2730,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3660422210.668862</v>
+        <v>4356645386.435628</v>
       </c>
       <c r="F65" t="n">
-        <v>0.160486650690186</v>
+        <v>0.1065379105026023</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03009713034372312</v>
+        <v>0.03006242698582211</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>21</v>
+      </c>
+      <c r="J65" t="n">
+        <v>26</v>
+      </c>
+      <c r="K65" t="n">
+        <v>215.3383446488172</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2761,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5333304292.898276</v>
+        <v>5699163555.135837</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1573858311203852</v>
+        <v>0.1038665371343997</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03990882205250832</v>
+        <v>0.03515312228013761</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>13</v>
+      </c>
+      <c r="J66" t="n">
+        <v>25</v>
+      </c>
+      <c r="K66" t="n">
+        <v>197.6095966062393</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2643498343.153474</v>
+        <v>3180157152.252682</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09535972759480991</v>
+        <v>0.08886144368445795</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04899392502106217</v>
+        <v>0.03166757382104429</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,16 +2839,25 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3703397886.287426</v>
+        <v>3787953985.096534</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1312187208181484</v>
+        <v>0.1376852293594032</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0423312329805723</v>
+        <v>0.0402746932290318</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>13</v>
+      </c>
+      <c r="J68" t="n">
+        <v>25</v>
+      </c>
+      <c r="K68" t="n">
+        <v>200.0750634834214</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2309679396.745022</v>
+        <v>2252964331.652384</v>
       </c>
       <c r="F69" t="n">
-        <v>0.124440672357671</v>
+        <v>0.131541894423692</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03656465602237991</v>
+        <v>0.04784444503025329</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2905,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3531533676.097349</v>
+        <v>3273612785.910373</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06994443459664655</v>
+        <v>0.06729722890967017</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03765681832184606</v>
+        <v>0.04863126260540739</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>2</v>
+      </c>
+      <c r="J70" t="n">
+        <v>17</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2940,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5140494252.676804</v>
+        <v>4268149893.169287</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1846906873762642</v>
+        <v>0.1729535762936297</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0325797464332806</v>
+        <v>0.02098709052066216</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>20</v>
+      </c>
+      <c r="J71" t="n">
+        <v>26</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2171552368.788915</v>
+        <v>2276086077.361662</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06825082743165034</v>
+        <v>0.09174517361311811</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04997784644605669</v>
+        <v>0.04388006294463705</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2328487163.479537</v>
+        <v>2931048071.425241</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0826002088188722</v>
+        <v>0.08026300652894264</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04614613796222095</v>
+        <v>0.03788889012089998</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>11</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3051,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3196938310.849801</v>
+        <v>3868295635.06511</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1354553063887674</v>
+        <v>0.1691309968232892</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02476698072587948</v>
+        <v>0.03428877574821533</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>7</v>
+      </c>
+      <c r="J74" t="n">
+        <v>26</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1749535735.325809</v>
+        <v>2265603268.114115</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1303919321762751</v>
+        <v>0.1286224526117882</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03647854529465574</v>
+        <v>0.03595539758295872</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,16 +3121,25 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4894792318.453518</v>
+        <v>4378755193.254938</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1002240852968472</v>
+        <v>0.08454649616112078</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02958048031936637</v>
+        <v>0.02801190453230745</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>12</v>
+      </c>
+      <c r="J76" t="n">
+        <v>25</v>
+      </c>
+      <c r="K76" t="n">
+        <v>170.5979942783206</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1671842708.144174</v>
+        <v>1644607731.694818</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1468801878749658</v>
+        <v>0.15699978705914</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02744858105850325</v>
+        <v>0.02244725634599368</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3187,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4432277986.056463</v>
+        <v>4736592578.981544</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1093138237744738</v>
+        <v>0.1277375885375356</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04756246795543392</v>
+        <v>0.03960082098730846</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>10</v>
+      </c>
+      <c r="J78" t="n">
+        <v>26</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1592066534.458804</v>
+        <v>1893842011.820457</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1769750069406547</v>
+        <v>0.1364754214740723</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03585088839234695</v>
+        <v>0.0388822753796815</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,17 +3263,24 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4654004141.771014</v>
+        <v>4807919901.566492</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09549652992569727</v>
+        <v>0.1015958440331325</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02942045313094875</v>
+        <v>0.02918881476706901</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>12</v>
+      </c>
+      <c r="J80" t="n">
+        <v>26</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2698,16 +3298,25 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4755423965.735472</v>
+        <v>5018935330.72038</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09053033317641666</v>
+        <v>0.08849131039345685</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02303316664949401</v>
+        <v>0.02649554736680952</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>12</v>
+      </c>
+      <c r="J81" t="n">
+        <v>25</v>
+      </c>
+      <c r="K81" t="n">
+        <v>170.8890317289015</v>
       </c>
     </row>
     <row r="82">
@@ -2726,17 +3335,24 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4176186145.118822</v>
+        <v>4633582968.525658</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1535195608023406</v>
+        <v>0.1468386280672701</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02924032211796721</v>
+        <v>0.02187885577228263</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>13</v>
+      </c>
+      <c r="J82" t="n">
+        <v>26</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2121613449.47932</v>
+        <v>1572320122.283695</v>
       </c>
       <c r="F83" t="n">
-        <v>0.104728077965923</v>
+        <v>0.1493531399971898</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04386188180331421</v>
+        <v>0.03421101512661428</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2212054660.927672</v>
+        <v>2412898930.939464</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09538722810173841</v>
+        <v>0.1195018551019961</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04148845876240779</v>
+        <v>0.0347777221706265</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2314897164.304885</v>
+        <v>3434843209.398088</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1713329808307147</v>
+        <v>0.1662566727363687</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03448326255825739</v>
+        <v>0.05406782077522232</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>4</v>
+      </c>
+      <c r="J85" t="n">
+        <v>17</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3475,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2768315394.345671</v>
+        <v>2797642790.166622</v>
       </c>
       <c r="F86" t="n">
-        <v>0.163133457035387</v>
+        <v>0.1409191848331218</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02641164019726419</v>
+        <v>0.02463018522643586</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3510,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>984773454.754783</v>
+        <v>1296136447.961708</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1145196977948883</v>
+        <v>0.1885962813666427</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03432652206262761</v>
+        <v>0.03587471937320218</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,22 +3539,31 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3461210115.954973</v>
+        <v>2296099851.724067</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1550316588443737</v>
+        <v>0.1227314915138759</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03274251461474396</v>
+        <v>0.03478123706684483</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>3</v>
+      </c>
+      <c r="J88" t="n">
+        <v>25</v>
+      </c>
+      <c r="K88" t="n">
+        <v>83.10394352666687</v>
       </c>
     </row>
     <row r="89">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2308041529.605364</v>
+        <v>3361137303.203518</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1260474358563461</v>
+        <v>0.1102589617031249</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03720431704061455</v>
+        <v>0.03978150487839449</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>3</v>
+      </c>
+      <c r="J89" t="n">
+        <v>17</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1546379085.054139</v>
+        <v>1601910693.175281</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1225291991423396</v>
+        <v>0.1089077063729351</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05451566614251661</v>
+        <v>0.0418331123913778</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1274887447.932192</v>
+        <v>2020834208.570214</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1861467412932966</v>
+        <v>0.1258193814512854</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05319994490203895</v>
+        <v>0.05803537869877117</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3687,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2872123815.004494</v>
+        <v>2426311980.679144</v>
       </c>
       <c r="F92" t="n">
-        <v>0.106017216189137</v>
+        <v>0.09068484817370252</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03496630801615718</v>
+        <v>0.04729508503238304</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,16 +3722,25 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4006632553.61542</v>
+        <v>3724909071.97317</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09227520417179078</v>
+        <v>0.111048957713274</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04170560909064887</v>
+        <v>0.03496904190338926</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>11</v>
+      </c>
+      <c r="J93" t="n">
+        <v>25</v>
+      </c>
+      <c r="K93" t="n">
+        <v>189.8417347030421</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1961958103.598578</v>
+        <v>2145706731.033942</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1459244643975476</v>
+        <v>0.1339234324478131</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04316767905439773</v>
+        <v>0.03596570178018556</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2577549910.710688</v>
+        <v>2901415534.837484</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1294418258263372</v>
+        <v>0.1036651134574696</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03436932857174418</v>
+        <v>0.04964228262145228</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1820500953.762504</v>
+        <v>1956842048.460873</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1104694329664671</v>
+        <v>0.1001820811470153</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0406984602929444</v>
+        <v>0.04441929633787513</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3240337485.015409</v>
+        <v>5354895592.108786</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1477313535213372</v>
+        <v>0.1518480945694394</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02029687500452578</v>
+        <v>0.01948153470188129</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>12</v>
+      </c>
+      <c r="J97" t="n">
+        <v>26</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3174,17 +3899,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3796743327.705724</v>
+        <v>3717998571.736533</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1026366700483357</v>
+        <v>0.1001097478273286</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02476640709885749</v>
+        <v>0.02503577583745622</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>6</v>
+      </c>
+      <c r="J98" t="n">
+        <v>26</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3934,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2789717492.731674</v>
+        <v>2407540668.083357</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1070351667782492</v>
+        <v>0.1325330600231755</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02610953374027311</v>
+        <v>0.02912891893762612</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,16 +3969,25 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3747611215.596228</v>
+        <v>3184389609.517303</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1265149093830125</v>
+        <v>0.1572874453669144</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02776201823524476</v>
+        <v>0.01949272590488619</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>12</v>
+      </c>
+      <c r="J100" t="n">
+        <v>25</v>
+      </c>
+      <c r="K100" t="n">
+        <v>139.8566793397561</v>
       </c>
     </row>
     <row r="101">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3551641043.223365</v>
+        <v>3270405416.030349</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1458008919220103</v>
+        <v>0.1834616574101565</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0432190155222793</v>
+        <v>0.04314586388817346</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
